--- a/3_intermediate/OR_import.xlsx
+++ b/3_intermediate/OR_import.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_88D1FD514068A76A5F098802EB9E65EADBDC33C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8ACDB4-862F-44AB-B542-04515194D176}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5415" yWindow="1065" windowWidth="16140" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>OR</t>
   </si>
@@ -36,73 +37,79 @@
     <t>higher</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Urban/Rural: Urban Core</t>
-  </si>
-  <si>
-    <t>Urban/Rural: Urban Fringe</t>
-  </si>
-  <si>
-    <t>Urban/Rural: Urban out CMA/CAs</t>
-  </si>
-  <si>
-    <t>Urban/Rural: 2nd Urban Core</t>
-  </si>
-  <si>
-    <t>Urban/Rural: DA Only</t>
-  </si>
-  <si>
-    <t>Race: Non-White</t>
-  </si>
-  <si>
-    <t>Sex: Male</t>
-  </si>
-  <si>
-    <t>Education: High School</t>
-  </si>
-  <si>
-    <t>Education: Vocational Tr</t>
-  </si>
-  <si>
-    <t>Education: Non-Uni Cert</t>
-  </si>
-  <si>
-    <t>Education: Bachelor</t>
-  </si>
-  <si>
-    <t>Education: Graduate</t>
-  </si>
-  <si>
     <t>Depression Scale</t>
   </si>
   <si>
     <t>Vaccination &gt;15 Days</t>
   </si>
   <si>
-    <t>Prov Group: NF &amp; NS</t>
-  </si>
-  <si>
-    <t>Prov Group: QC</t>
-  </si>
-  <si>
-    <t>Prov Group: ON</t>
-  </si>
-  <si>
-    <t>Prov Group: MT &amp; AB</t>
-  </si>
-  <si>
     <t>Outbreak Peak</t>
   </si>
   <si>
     <t>Traveling Distance (km)</t>
+  </si>
+  <si>
+    <t>Unadjusted</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Non-White (ref: White)</t>
+  </si>
+  <si>
+    <t>Prov Group: NF &amp; NS (ref: BC)</t>
+  </si>
+  <si>
+    <t>Sex: Male (ref: Female)</t>
+  </si>
+  <si>
+    <t>Age in 10-year scale</t>
+  </si>
+  <si>
+    <t>Prov Group: QC (ref: BC)</t>
+  </si>
+  <si>
+    <t>Prov Group: ON (ref: BC)</t>
+  </si>
+  <si>
+    <t>Prov Group: MT &amp; AB (ref: BC)</t>
+  </si>
+  <si>
+    <t>U/R: Urban Core (ref: Rural)</t>
+  </si>
+  <si>
+    <t>U/R: Urban Fringe (ref: Rural)</t>
+  </si>
+  <si>
+    <t>U/R: Urban out CMA/CAs (ref: Rural)</t>
+  </si>
+  <si>
+    <t>U/R: 2nd Urban Core (ref: Rural)</t>
+  </si>
+  <si>
+    <t>U/R: DA Only (ref: Rural)</t>
+  </si>
+  <si>
+    <t>Edu: High School (ref: &lt;High School)</t>
+  </si>
+  <si>
+    <t>Edu: Vocational Tr (ref: &lt;High School)</t>
+  </si>
+  <si>
+    <t>Edu: Non-Uni Cert (ref: &lt;High School)</t>
+  </si>
+  <si>
+    <t>Edu: Bachelor (ref: &lt;High School)</t>
+  </si>
+  <si>
+    <t>Edu: Graduate (ref: &lt;High School)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,16 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
@@ -447,24 +458,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>1.0036</v>
+        <v>1.04</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D2">
-        <v>1.01</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1.1200000000000001</v>
@@ -475,13 +486,13 @@
       <c r="D3">
         <v>1.23</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0.87</v>
@@ -492,13 +503,13 @@
       <c r="D4">
         <v>1.05</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0.88</v>
@@ -509,13 +520,13 @@
       <c r="D5">
         <v>1.26</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1.49</v>
@@ -526,13 +537,13 @@
       <c r="D6">
         <v>2.86</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0.38</v>
@@ -543,13 +554,13 @@
       <c r="D7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -560,8 +571,8 @@
       <c r="D8">
         <v>1.21</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,13 +588,13 @@
       <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1.38</v>
@@ -594,13 +605,13 @@
       <c r="D10">
         <v>1.81</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1.1000000000000001</v>
@@ -611,13 +622,13 @@
       <c r="D11">
         <v>1.47</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.91</v>
@@ -628,13 +639,13 @@
       <c r="D12">
         <v>1.19</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>1.35</v>
@@ -645,13 +656,13 @@
       <c r="D13">
         <v>1.74</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1.27</v>
@@ -662,13 +673,13 @@
       <c r="D14">
         <v>1.64</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -679,13 +690,13 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>0.97340000000000004</v>
@@ -696,13 +707,13 @@
       <c r="D16">
         <v>0.98</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>0.62</v>
@@ -713,13 +724,13 @@
       <c r="D17">
         <v>0.68</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>1.63</v>
@@ -730,13 +741,13 @@
       <c r="D18">
         <v>1.9</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0.72</v>
@@ -747,13 +758,13 @@
       <c r="D19">
         <v>0.84</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>2.14</v>
@@ -764,13 +775,13 @@
       <c r="D20">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>1.94</v>
@@ -781,13 +792,13 @@
       <c r="D21">
         <v>2.25</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>2.1800000000000002</v>
@@ -798,30 +809,30 @@
       <c r="D22">
         <v>2.74</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>1.0037</v>
+        <v>1.04</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D23">
-        <v>1.01</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>1.1000000000000001</v>
@@ -832,13 +843,13 @@
       <c r="D24">
         <v>1.21</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>0.49</v>
@@ -849,13 +860,13 @@
       <c r="D25">
         <v>0.61</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>0.66</v>
@@ -866,30 +877,30 @@
       <c r="D26">
         <v>0.97</v>
       </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="C27">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D27">
-        <v>3.21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>3.17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>0.51</v>
@@ -900,13 +911,13 @@
       <c r="D28">
         <v>0.79</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>0.47</v>
@@ -917,8 +928,8 @@
       <c r="D29">
         <v>0.73</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,72 +937,72 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C30">
         <v>0.56999999999999995</v>
       </c>
       <c r="D30">
-        <v>0.99</v>
-      </c>
-      <c r="E30">
         <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="C31">
         <v>1.03</v>
       </c>
       <c r="D31">
-        <v>1.84</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>1.83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="D32">
-        <v>1.51</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>1.52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C33">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="D33">
-        <v>1.23</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>1.21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>1.26</v>
@@ -1002,30 +1013,30 @@
       <c r="D34">
         <v>1.66</v>
       </c>
-      <c r="E34">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C35">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D35">
-        <v>1.51</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>1.52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1036,13 +1047,13 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>0.96</v>
@@ -1053,13 +1064,13 @@
       <c r="D37">
         <v>0.97</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>0.64</v>
@@ -1070,13 +1081,13 @@
       <c r="D38">
         <v>0.71</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>1.48</v>
@@ -1087,13 +1098,13 @@
       <c r="D39">
         <v>1.73</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0.77</v>
@@ -1104,13 +1115,13 @@
       <c r="D40">
         <v>0.9</v>
       </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>2.52</v>
@@ -1121,16 +1132,16 @@
       <c r="D41">
         <v>2.94</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>2.0299999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="C42">
         <v>1.74</v>
@@ -1138,25 +1149,25 @@
       <c r="D42">
         <v>2.38</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>1.73</v>
       </c>
       <c r="C43">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="D43">
-        <v>2.21</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/3_intermediate/OR_import.xlsx
+++ b/3_intermediate/OR_import.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_88D1FD514068A76A5F098802EB9E65EADBDC33C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8ACDB4-862F-44AB-B542-04515194D176}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1065" windowWidth="16140" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="11505"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Prov_5_inc" sheetId="3" r:id="rId1"/>
+    <sheet name="Prov_5" sheetId="2" r:id="rId2"/>
+    <sheet name="Table" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="37">
   <si>
     <t>OR</t>
   </si>
@@ -105,11 +106,38 @@
   <si>
     <t>Edu: Graduate (ref: &lt;High School)</t>
   </si>
+  <si>
+    <t>NFL &amp; NS</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>MT &amp; AB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>U/R: Urban Others (ref: Rural)</t>
+  </si>
+  <si>
+    <t>Prov</t>
+  </si>
+  <si>
+    <t>Outbreak Peak*</t>
+  </si>
+  <si>
+    <t>Avg Incidence Rate 15 Days ago</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,11 +452,2469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1.07</v>
+      </c>
+      <c r="C2">
+        <v>0.94</v>
+      </c>
+      <c r="D2">
+        <v>1.21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>1.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1.49</v>
+      </c>
+      <c r="C4">
+        <v>0.96</v>
+      </c>
+      <c r="D4">
+        <v>2.33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0.63</v>
+      </c>
+      <c r="C5">
+        <v>0.24</v>
+      </c>
+      <c r="D5">
+        <v>1.52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.31</v>
+      </c>
+      <c r="C6">
+        <v>0.59</v>
+      </c>
+      <c r="D6">
+        <v>2.96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.94</v>
+      </c>
+      <c r="C7">
+        <v>0.46</v>
+      </c>
+      <c r="D7">
+        <v>1.91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.54</v>
+      </c>
+      <c r="D8">
+        <v>2.29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>1.21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1.17</v>
+      </c>
+      <c r="C10">
+        <v>0.59</v>
+      </c>
+      <c r="D10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>1.06</v>
+      </c>
+      <c r="C11">
+        <v>0.53</v>
+      </c>
+      <c r="D11">
+        <v>2.09</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.99</v>
+      </c>
+      <c r="C13">
+        <v>0.97</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1.21</v>
+      </c>
+      <c r="C14">
+        <v>0.95</v>
+      </c>
+      <c r="D14">
+        <v>1.55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0.91</v>
+      </c>
+      <c r="C15">
+        <v>0.86</v>
+      </c>
+      <c r="D15">
+        <v>0.95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.95</v>
+      </c>
+      <c r="D16">
+        <v>1.3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1.08</v>
+      </c>
+      <c r="C17">
+        <v>0.82</v>
+      </c>
+      <c r="D17">
+        <v>1.43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>0.11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.97</v>
+      </c>
+      <c r="C19">
+        <v>0.54</v>
+      </c>
+      <c r="D19">
+        <v>1.75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0.34</v>
+      </c>
+      <c r="C20">
+        <v>0.11</v>
+      </c>
+      <c r="D20">
+        <v>0.94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1.65</v>
+      </c>
+      <c r="C21">
+        <v>0.86</v>
+      </c>
+      <c r="D21">
+        <v>3.17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1.77</v>
+      </c>
+      <c r="C22">
+        <v>0.88</v>
+      </c>
+      <c r="D22">
+        <v>3.59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1.18</v>
+      </c>
+      <c r="C23">
+        <v>0.63</v>
+      </c>
+      <c r="D23">
+        <v>2.23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.99</v>
+      </c>
+      <c r="C24">
+        <v>0.54</v>
+      </c>
+      <c r="D24">
+        <v>1.84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.72</v>
+      </c>
+      <c r="C25">
+        <v>0.39</v>
+      </c>
+      <c r="D25">
+        <v>1.37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.88</v>
+      </c>
+      <c r="C27">
+        <v>0.86</v>
+      </c>
+      <c r="D27">
+        <v>0.89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>0.19</v>
+      </c>
+      <c r="D28">
+        <v>0.33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>1.05</v>
+      </c>
+      <c r="C29">
+        <v>1.02</v>
+      </c>
+      <c r="D29">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>0.96</v>
+      </c>
+      <c r="C30">
+        <v>0.86</v>
+      </c>
+      <c r="D30">
+        <v>1.08</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1.23</v>
+      </c>
+      <c r="C31">
+        <v>1.0001</v>
+      </c>
+      <c r="D31">
+        <v>1.52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>0.88</v>
+      </c>
+      <c r="C32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D32">
+        <v>1.36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.99</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>1.64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>0.9</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>1.65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0.81</v>
+      </c>
+      <c r="C35">
+        <v>0.42</v>
+      </c>
+      <c r="D35">
+        <v>1.53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>0.62</v>
+      </c>
+      <c r="C36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D36">
+        <v>1.33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>0.71</v>
+      </c>
+      <c r="C37">
+        <v>0.37</v>
+      </c>
+      <c r="D37">
+        <v>1.3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>0.86</v>
+      </c>
+      <c r="C38">
+        <v>0.46</v>
+      </c>
+      <c r="D38">
+        <v>1.57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>0.81</v>
+      </c>
+      <c r="C39">
+        <v>0.43</v>
+      </c>
+      <c r="D39">
+        <v>1.48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>0.98</v>
+      </c>
+      <c r="C41">
+        <v>0.97</v>
+      </c>
+      <c r="D41">
+        <v>0.99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0.92</v>
+      </c>
+      <c r="C42">
+        <v>0.73</v>
+      </c>
+      <c r="D42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0.96</v>
+      </c>
+      <c r="C43">
+        <v>0.94</v>
+      </c>
+      <c r="D43">
+        <v>0.97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>1.01</v>
+      </c>
+      <c r="C44">
+        <v>0.89</v>
+      </c>
+      <c r="D44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>1.21</v>
+      </c>
+      <c r="C45">
+        <v>0.97</v>
+      </c>
+      <c r="D45">
+        <v>1.51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.48</v>
+      </c>
+      <c r="D46">
+        <v>2.52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>0.46</v>
+      </c>
+      <c r="C47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D47">
+        <v>1.41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D48">
+        <v>1.73</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>1.93</v>
+      </c>
+      <c r="C49">
+        <v>1.0001</v>
+      </c>
+      <c r="D49">
+        <v>3.77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>1.23</v>
+      </c>
+      <c r="C50">
+        <v>0.59</v>
+      </c>
+      <c r="D50">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>1.08</v>
+      </c>
+      <c r="C51">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D51">
+        <v>2.11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>2.09</v>
+      </c>
+      <c r="C52">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D52">
+        <v>3.95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>1.42</v>
+      </c>
+      <c r="C53">
+        <v>0.75</v>
+      </c>
+      <c r="D53">
+        <v>2.74</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>1.02</v>
+      </c>
+      <c r="C55">
+        <v>1.0001</v>
+      </c>
+      <c r="D55">
+        <v>1.03</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>0.95</v>
+      </c>
+      <c r="C56">
+        <v>0.76</v>
+      </c>
+      <c r="D56">
+        <v>1.2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57">
+        <v>0.99</v>
+      </c>
+      <c r="C57">
+        <v>0.98</v>
+      </c>
+      <c r="D57">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C58">
+        <v>0.99</v>
+      </c>
+      <c r="D58">
+        <v>1.29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>0.99</v>
+      </c>
+      <c r="C59">
+        <v>0.78</v>
+      </c>
+      <c r="D59">
+        <v>1.26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>0.26</v>
+      </c>
+      <c r="C60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>0.26</v>
+      </c>
+      <c r="C61">
+        <v>0.12</v>
+      </c>
+      <c r="D61">
+        <v>0.54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>0.26</v>
+      </c>
+      <c r="D62">
+        <v>0.9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>2.77</v>
+      </c>
+      <c r="C63">
+        <v>1.35</v>
+      </c>
+      <c r="D63">
+        <v>5.91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>0.65</v>
+      </c>
+      <c r="C64">
+        <v>0.27</v>
+      </c>
+      <c r="D64">
+        <v>1.57</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>1.56</v>
+      </c>
+      <c r="C65">
+        <v>0.77</v>
+      </c>
+      <c r="D65">
+        <v>3.27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>1.69</v>
+      </c>
+      <c r="C66">
+        <v>0.85</v>
+      </c>
+      <c r="D66">
+        <v>3.52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C67">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D67">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.93</v>
+      </c>
+      <c r="C69">
+        <v>0.92</v>
+      </c>
+      <c r="D69">
+        <v>0.95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C70">
+        <v>0.43</v>
+      </c>
+      <c r="D70">
+        <v>0.7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71">
+        <v>0.87</v>
+      </c>
+      <c r="C71">
+        <v>0.84</v>
+      </c>
+      <c r="D71">
+        <v>0.89</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection sqref="A1:E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.95</v>
+      </c>
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1.06</v>
+      </c>
+      <c r="C3">
+        <v>0.83</v>
+      </c>
+      <c r="D3">
+        <v>1.35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1.28</v>
+      </c>
+      <c r="C4">
+        <v>0.81</v>
+      </c>
+      <c r="D4">
+        <v>2.04</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>1.4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.35</v>
+      </c>
+      <c r="C6">
+        <v>0.53</v>
+      </c>
+      <c r="D6">
+        <v>3.65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1.3</v>
+      </c>
+      <c r="C8">
+        <v>0.61</v>
+      </c>
+      <c r="D8">
+        <v>2.78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0.37</v>
+      </c>
+      <c r="D9">
+        <v>1.6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1.25</v>
+      </c>
+      <c r="C10">
+        <v>0.61</v>
+      </c>
+      <c r="D10">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.98</v>
+      </c>
+      <c r="D12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.98</v>
+      </c>
+      <c r="C13">
+        <v>0.97</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1.07</v>
+      </c>
+      <c r="C14">
+        <v>0.83</v>
+      </c>
+      <c r="D14">
+        <v>1.37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.34</v>
+      </c>
+      <c r="D15">
+        <v>0.86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.92</v>
+      </c>
+      <c r="D16">
+        <v>1.29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.84</v>
+      </c>
+      <c r="D17">
+        <v>1.53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.06</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>0.11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0.73</v>
+      </c>
+      <c r="C19">
+        <v>0.37</v>
+      </c>
+      <c r="D19">
+        <v>1.4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0.43</v>
+      </c>
+      <c r="C20">
+        <v>0.13</v>
+      </c>
+      <c r="D20">
+        <v>1.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1.51</v>
+      </c>
+      <c r="C21">
+        <v>0.76</v>
+      </c>
+      <c r="D21">
+        <v>3.04</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1.89</v>
+      </c>
+      <c r="C22">
+        <v>0.88</v>
+      </c>
+      <c r="D22">
+        <v>4.09</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D23">
+        <v>2.25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.92</v>
+      </c>
+      <c r="C24">
+        <v>0.48</v>
+      </c>
+      <c r="D24">
+        <v>1.78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.71</v>
+      </c>
+      <c r="C25">
+        <v>0.37</v>
+      </c>
+      <c r="D25">
+        <v>1.41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.96</v>
+      </c>
+      <c r="C26">
+        <v>0.93</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.87</v>
+      </c>
+      <c r="C27">
+        <v>0.85</v>
+      </c>
+      <c r="D27">
+        <v>0.89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.24</v>
+      </c>
+      <c r="C28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>31.8</v>
+      </c>
+      <c r="C29">
+        <v>6.6</v>
+      </c>
+      <c r="D29">
+        <v>572</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>0.96</v>
+      </c>
+      <c r="C30">
+        <v>0.85</v>
+      </c>
+      <c r="D30">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1.2</v>
+      </c>
+      <c r="C31">
+        <v>0.96</v>
+      </c>
+      <c r="D31">
+        <v>1.51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>0.94</v>
+      </c>
+      <c r="C32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D32">
+        <v>1.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1.2</v>
+      </c>
+      <c r="C33">
+        <v>0.7</v>
+      </c>
+      <c r="D33">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>0.98</v>
+      </c>
+      <c r="C34">
+        <v>0.52</v>
+      </c>
+      <c r="D34">
+        <v>1.88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0.83</v>
+      </c>
+      <c r="C35">
+        <v>0.41</v>
+      </c>
+      <c r="D35">
+        <v>1.61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>0.6</v>
+      </c>
+      <c r="C36">
+        <v>0.26</v>
+      </c>
+      <c r="D36">
+        <v>1.34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>0.6</v>
+      </c>
+      <c r="C37">
+        <v>0.3</v>
+      </c>
+      <c r="D37">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>0.8</v>
+      </c>
+      <c r="C38">
+        <v>0.41</v>
+      </c>
+      <c r="D38">
+        <v>1.5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>0.68</v>
+      </c>
+      <c r="C39">
+        <v>0.35</v>
+      </c>
+      <c r="D39">
+        <v>1.29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>0.99</v>
+      </c>
+      <c r="C40">
+        <v>0.97</v>
+      </c>
+      <c r="D40">
+        <v>1.01</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>0.98</v>
+      </c>
+      <c r="C41">
+        <v>0.97</v>
+      </c>
+      <c r="D41">
+        <v>0.99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0.71</v>
+      </c>
+      <c r="C42">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D42">
+        <v>0.89</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>10.9</v>
+      </c>
+      <c r="C43">
+        <v>3.72</v>
+      </c>
+      <c r="D43">
+        <v>46.7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>1.08</v>
+      </c>
+      <c r="C44">
+        <v>0.94</v>
+      </c>
+      <c r="D44">
+        <v>1.23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>1.18</v>
+      </c>
+      <c r="C45">
+        <v>0.93</v>
+      </c>
+      <c r="D45">
+        <v>1.51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>1.39</v>
+      </c>
+      <c r="C46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D46">
+        <v>3.54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C47">
+        <v>0.16</v>
+      </c>
+      <c r="D47">
+        <v>1.88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>0.96</v>
+      </c>
+      <c r="C48">
+        <v>0.52</v>
+      </c>
+      <c r="D48">
+        <v>1.78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C49">
+        <v>1.08</v>
+      </c>
+      <c r="D49">
+        <v>4.53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>1.3</v>
+      </c>
+      <c r="C50">
+        <v>0.59</v>
+      </c>
+      <c r="D50">
+        <v>2.89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>2.41</v>
+      </c>
+      <c r="C52">
+        <v>1.22</v>
+      </c>
+      <c r="D52">
+        <v>4.83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>1.55</v>
+      </c>
+      <c r="C53">
+        <v>0.78</v>
+      </c>
+      <c r="D53">
+        <v>3.15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0.98</v>
+      </c>
+      <c r="D54">
+        <v>1.03</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>1.02</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1.04</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>0.93</v>
+      </c>
+      <c r="C56">
+        <v>0.73</v>
+      </c>
+      <c r="D56">
+        <v>1.19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>1.54</v>
+      </c>
+      <c r="C57">
+        <v>0.87</v>
+      </c>
+      <c r="D57">
+        <v>2.75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.95</v>
+      </c>
+      <c r="D58">
+        <v>1.24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>1.04</v>
+      </c>
+      <c r="C59">
+        <v>0.81</v>
+      </c>
+      <c r="D59">
+        <v>1.32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C61">
+        <v>0.13</v>
+      </c>
+      <c r="D61">
+        <v>0.6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>0.51</v>
+      </c>
+      <c r="C62">
+        <v>0.27</v>
+      </c>
+      <c r="D62">
+        <v>0.95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C63">
+        <v>1.22</v>
+      </c>
+      <c r="D63">
+        <v>5.28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>0.67</v>
+      </c>
+      <c r="C64">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D64">
+        <v>1.64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>1.46</v>
+      </c>
+      <c r="C65">
+        <v>0.72</v>
+      </c>
+      <c r="D65">
+        <v>3.05</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>1.56</v>
+      </c>
+      <c r="C66">
+        <v>0.78</v>
+      </c>
+      <c r="D66">
+        <v>3.24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>2.11</v>
+      </c>
+      <c r="C67">
+        <v>1.06</v>
+      </c>
+      <c r="D67">
+        <v>4.38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>0.99</v>
+      </c>
+      <c r="C68">
+        <v>0.96</v>
+      </c>
+      <c r="D68">
+        <v>1.01</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.94</v>
+      </c>
+      <c r="C69">
+        <v>0.92</v>
+      </c>
+      <c r="D69">
+        <v>0.95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>0.54</v>
+      </c>
+      <c r="C70">
+        <v>0.42</v>
+      </c>
+      <c r="D70">
+        <v>0.69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71">
+        <v>0.72</v>
+      </c>
+      <c r="C71">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D71">
+        <v>1.89</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3_intermediate/OR_import.xlsx
+++ b/3_intermediate/OR_import.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prov_5_inc" sheetId="3" r:id="rId1"/>
     <sheet name="Prov_5" sheetId="2" r:id="rId2"/>
-    <sheet name="Table" sheetId="1" r:id="rId3"/>
+    <sheet name="Reg" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prov_5_inc!$A$1:$A$71</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="34">
   <si>
     <t>OR</t>
   </si>
@@ -42,9 +45,6 @@
   </si>
   <si>
     <t>Vaccination &gt;15 Days</t>
-  </si>
-  <si>
-    <t>Outbreak Peak</t>
   </si>
   <si>
     <t>Traveling Distance (km)</t>
@@ -78,18 +78,6 @@
   </si>
   <si>
     <t>U/R: Urban Core (ref: Rural)</t>
-  </si>
-  <si>
-    <t>U/R: Urban Fringe (ref: Rural)</t>
-  </si>
-  <si>
-    <t>U/R: Urban out CMA/CAs (ref: Rural)</t>
-  </si>
-  <si>
-    <t>U/R: 2nd Urban Core (ref: Rural)</t>
-  </si>
-  <si>
-    <t>U/R: DA Only (ref: Rural)</t>
   </si>
   <si>
     <t>Edu: High School (ref: &lt;High School)</t>
@@ -132,6 +120,12 @@
   </si>
   <si>
     <t>Avg Incidence Rate 15 Days ago</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>Traveling Distance (per 25km)</t>
   </si>
 </sst>
 </file>
@@ -455,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,12 +476,12 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1.07</v>
@@ -499,12 +493,12 @@
         <v>1.21</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -516,12 +510,12 @@
         <v>1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.49</v>
@@ -533,12 +527,12 @@
         <v>2.33</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.63</v>
@@ -550,12 +544,12 @@
         <v>1.52</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1.31</v>
@@ -567,12 +561,12 @@
         <v>2.96</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.94</v>
@@ -584,12 +578,12 @@
         <v>1.91</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1.1200000000000001</v>
@@ -601,12 +595,12 @@
         <v>2.29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.6</v>
@@ -618,12 +612,12 @@
         <v>1.21</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1.17</v>
@@ -635,12 +629,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1.06</v>
@@ -652,7 +646,7 @@
         <v>2.09</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,12 +663,12 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0.99</v>
@@ -686,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,12 +697,12 @@
         <v>1.55</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0.91</v>
@@ -720,12 +714,12 @@
         <v>0.95</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1.1100000000000001</v>
@@ -737,12 +731,12 @@
         <v>1.3</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1.08</v>
@@ -754,12 +748,12 @@
         <v>1.43</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>7.0000000000000007E-2</v>
@@ -771,12 +765,12 @@
         <v>0.11</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0.97</v>
@@ -788,12 +782,12 @@
         <v>1.75</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0.34</v>
@@ -805,12 +799,12 @@
         <v>0.94</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1.65</v>
@@ -822,12 +816,12 @@
         <v>3.17</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1.77</v>
@@ -839,12 +833,12 @@
         <v>3.59</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1.18</v>
@@ -856,12 +850,12 @@
         <v>2.23</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.99</v>
@@ -873,12 +867,12 @@
         <v>1.84</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0.72</v>
@@ -890,7 +884,7 @@
         <v>1.37</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,12 +901,12 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>0.88</v>
@@ -924,7 +918,7 @@
         <v>0.89</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,12 +935,12 @@
         <v>0.33</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1.05</v>
@@ -958,12 +952,12 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>0.96</v>
@@ -975,12 +969,12 @@
         <v>1.08</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>1.23</v>
@@ -992,12 +986,12 @@
         <v>1.52</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>0.88</v>
@@ -1009,12 +1003,12 @@
         <v>1.36</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>0.99</v>
@@ -1026,12 +1020,12 @@
         <v>1.64</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>0.9</v>
@@ -1043,12 +1037,12 @@
         <v>1.65</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>0.81</v>
@@ -1060,12 +1054,12 @@
         <v>1.53</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>0.62</v>
@@ -1077,12 +1071,12 @@
         <v>1.33</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>0.71</v>
@@ -1094,12 +1088,12 @@
         <v>1.3</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>0.86</v>
@@ -1111,12 +1105,12 @@
         <v>1.57</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>0.81</v>
@@ -1128,7 +1122,7 @@
         <v>1.48</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,12 +1139,12 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>0.98</v>
@@ -1162,7 +1156,7 @@
         <v>0.99</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,12 +1173,12 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>0.96</v>
@@ -1196,12 +1190,12 @@
         <v>0.97</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>1.01</v>
@@ -1213,12 +1207,12 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>1.21</v>
@@ -1230,12 +1224,12 @@
         <v>1.51</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>1.1100000000000001</v>
@@ -1247,12 +1241,12 @@
         <v>2.52</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B47">
         <v>0.46</v>
@@ -1264,12 +1258,12 @@
         <v>1.41</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1281,12 +1275,12 @@
         <v>1.73</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>1.93</v>
@@ -1298,12 +1292,12 @@
         <v>3.77</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>1.23</v>
@@ -1315,12 +1309,12 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>1.08</v>
@@ -1332,12 +1326,12 @@
         <v>2.11</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>2.09</v>
@@ -1349,12 +1343,12 @@
         <v>3.95</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>1.42</v>
@@ -1366,7 +1360,7 @@
         <v>2.74</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,12 +1377,12 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>1.02</v>
@@ -1400,7 +1394,7 @@
         <v>1.03</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,12 +1411,12 @@
         <v>1.2</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>0.99</v>
@@ -1434,12 +1428,12 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>1.1299999999999999</v>
@@ -1451,12 +1445,12 @@
         <v>1.29</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>0.99</v>
@@ -1468,12 +1462,12 @@
         <v>1.26</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>0.26</v>
@@ -1485,12 +1479,12 @@
         <v>0.48</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B61">
         <v>0.26</v>
@@ -1502,12 +1496,12 @@
         <v>0.54</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>0.5</v>
@@ -1519,12 +1513,12 @@
         <v>0.9</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>2.77</v>
@@ -1536,12 +1530,12 @@
         <v>5.91</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>0.65</v>
@@ -1553,12 +1547,12 @@
         <v>1.57</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>1.56</v>
@@ -1570,12 +1564,12 @@
         <v>3.27</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B66">
         <v>1.69</v>
@@ -1587,12 +1581,12 @@
         <v>3.52</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>2.2599999999999998</v>
@@ -1604,7 +1598,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,12 +1615,12 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>0.93</v>
@@ -1638,7 +1632,7 @@
         <v>0.95</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,12 +1649,12 @@
         <v>0.7</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B71">
         <v>0.87</v>
@@ -1672,7 +1666,7 @@
         <v>0.89</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1680,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection sqref="A1:E71"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,12 +1705,12 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
@@ -1728,12 +1722,12 @@
         <v>1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1.06</v>
@@ -1745,12 +1739,12 @@
         <v>1.35</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.28</v>
@@ -1762,12 +1756,12 @@
         <v>2.04</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0.55000000000000004</v>
@@ -1779,12 +1773,12 @@
         <v>1.4</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1.35</v>
@@ -1796,12 +1790,12 @@
         <v>3.65</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.95</v>
@@ -1813,12 +1807,12 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1.3</v>
@@ -1830,12 +1824,12 @@
         <v>2.78</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.77</v>
@@ -1847,12 +1841,12 @@
         <v>1.6</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1.25</v>
@@ -1864,12 +1858,12 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1.1299999999999999</v>
@@ -1881,7 +1875,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,12 +1892,12 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0.98</v>
@@ -1915,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,12 +1926,12 @@
         <v>1.37</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0.55000000000000004</v>
@@ -1949,12 +1943,12 @@
         <v>0.86</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1.0900000000000001</v>
@@ -1966,12 +1960,12 @@
         <v>1.29</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1.1299999999999999</v>
@@ -1983,12 +1977,12 @@
         <v>1.53</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0.06</v>
@@ -2000,12 +1994,12 @@
         <v>0.11</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0.73</v>
@@ -2017,12 +2011,12 @@
         <v>1.4</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0.43</v>
@@ -2034,12 +2028,12 @@
         <v>1.25</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1.51</v>
@@ -2051,12 +2045,12 @@
         <v>3.04</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1.89</v>
@@ -2068,12 +2062,12 @@
         <v>4.09</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>1.1399999999999999</v>
@@ -2085,12 +2079,12 @@
         <v>2.25</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.92</v>
@@ -2102,12 +2096,12 @@
         <v>1.78</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0.71</v>
@@ -2119,7 +2113,7 @@
         <v>1.41</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,12 +2130,12 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>0.87</v>
@@ -2153,7 +2147,7 @@
         <v>0.89</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,12 +2164,12 @@
         <v>0.33</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>31.8</v>
@@ -2187,12 +2181,12 @@
         <v>572</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>0.96</v>
@@ -2204,12 +2198,12 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>1.2</v>
@@ -2221,12 +2215,12 @@
         <v>1.51</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>0.94</v>
@@ -2238,12 +2232,12 @@
         <v>1.5</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>1.2</v>
@@ -2255,12 +2249,12 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>0.98</v>
@@ -2272,12 +2266,12 @@
         <v>1.88</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>0.83</v>
@@ -2289,12 +2283,12 @@
         <v>1.61</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>0.6</v>
@@ -2306,12 +2300,12 @@
         <v>1.34</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>0.6</v>
@@ -2323,12 +2317,12 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>0.8</v>
@@ -2340,12 +2334,12 @@
         <v>1.5</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>0.68</v>
@@ -2357,7 +2351,7 @@
         <v>1.29</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2374,12 +2368,12 @@
         <v>1.01</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>0.98</v>
@@ -2391,7 +2385,7 @@
         <v>0.99</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,12 +2402,12 @@
         <v>0.89</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>10.9</v>
@@ -2425,12 +2419,12 @@
         <v>46.7</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>1.08</v>
@@ -2442,12 +2436,12 @@
         <v>1.23</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>1.18</v>
@@ -2459,12 +2453,12 @@
         <v>1.51</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>1.39</v>
@@ -2476,12 +2470,12 @@
         <v>3.54</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B47">
         <v>0.56000000000000005</v>
@@ -2493,12 +2487,12 @@
         <v>1.88</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>0.96</v>
@@ -2510,12 +2504,12 @@
         <v>1.78</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>2.2000000000000002</v>
@@ -2527,12 +2521,12 @@
         <v>4.53</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>1.3</v>
@@ -2544,12 +2538,12 @@
         <v>2.89</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>1.1200000000000001</v>
@@ -2561,12 +2555,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>2.41</v>
@@ -2578,12 +2572,12 @@
         <v>4.83</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>1.55</v>
@@ -2595,7 +2589,7 @@
         <v>3.15</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2612,12 +2606,12 @@
         <v>1.03</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>1.02</v>
@@ -2629,7 +2623,7 @@
         <v>1.04</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,12 +2640,12 @@
         <v>1.19</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>1.54</v>
@@ -2663,12 +2657,12 @@
         <v>2.75</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>1.0900000000000001</v>
@@ -2680,12 +2674,12 @@
         <v>1.24</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>1.04</v>
@@ -2697,12 +2691,12 @@
         <v>1.32</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>0.28000000000000003</v>
@@ -2714,12 +2708,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B61">
         <v>0.28000000000000003</v>
@@ -2731,12 +2725,12 @@
         <v>0.6</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>0.51</v>
@@ -2748,12 +2742,12 @@
         <v>0.95</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>2.4900000000000002</v>
@@ -2765,12 +2759,12 @@
         <v>5.28</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>0.67</v>
@@ -2782,12 +2776,12 @@
         <v>1.64</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>1.46</v>
@@ -2799,12 +2793,12 @@
         <v>3.05</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B66">
         <v>1.56</v>
@@ -2816,12 +2810,12 @@
         <v>3.24</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>2.11</v>
@@ -2833,7 +2827,7 @@
         <v>4.38</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,12 +2844,12 @@
         <v>1.01</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>0.94</v>
@@ -2867,7 +2861,7 @@
         <v>0.95</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,12 +2878,12 @@
         <v>0.69</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B71">
         <v>0.72</v>
@@ -2901,7 +2895,7 @@
         <v>1.89</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2911,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection sqref="A1:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,7 +2938,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -2956,12 +2950,12 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1.1200000000000001</v>
@@ -2973,12 +2967,12 @@
         <v>1.23</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.87</v>
@@ -2990,276 +2984,276 @@
         <v>1.05</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="C5">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D5">
-        <v>1.26</v>
+        <v>0.94</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1.49</v>
+        <v>0.63</v>
       </c>
       <c r="C6">
+        <v>0.49</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="D6">
-        <v>2.86</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>0.38</v>
+        <v>1.38</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>1.06</v>
       </c>
       <c r="D7">
-        <v>0.57999999999999996</v>
+        <v>1.81</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.53</v>
+        <v>0.82</v>
       </c>
       <c r="D8">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>0.63</v>
+        <v>0.91</v>
       </c>
       <c r="C9">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>1.19</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="C10">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D10">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>1.1000000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="C11">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="D11">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="D12">
-        <v>1.19</v>
+        <v>1.0001</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>1.35</v>
+        <v>0.51</v>
       </c>
       <c r="C13">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="D13">
-        <v>1.74</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>1.27</v>
+        <v>0.62</v>
       </c>
       <c r="C14">
-        <v>0.98</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D14">
-        <v>1.64</v>
+        <v>0.68</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.72</v>
+      </c>
+      <c r="C16">
+        <v>0.62</v>
+      </c>
+      <c r="D16">
+        <v>0.84</v>
+      </c>
+      <c r="E16" t="s">
         <v>8</v>
-      </c>
-      <c r="B16">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="C16">
-        <v>0.97</v>
-      </c>
-      <c r="D16">
-        <v>0.98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.62</v>
+        <v>2.14</v>
       </c>
       <c r="C17">
-        <v>0.56999999999999995</v>
+        <v>1.85</v>
       </c>
       <c r="D17">
-        <v>0.68</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="C18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="D18">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="C19">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="D19">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.85</v>
+        <v>0.99</v>
       </c>
       <c r="D20">
-        <v>2.4700000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -3267,16 +3261,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>1.94</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C21">
-        <v>1.67</v>
+        <v>1.0001</v>
       </c>
       <c r="D21">
-        <v>2.25</v>
+        <v>1.24</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -3284,16 +3278,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>2.1800000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="C22">
-        <v>1.75</v>
+        <v>0.38</v>
       </c>
       <c r="D22">
-        <v>2.74</v>
+        <v>0.6</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -3301,36 +3295,36 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>1.04</v>
+        <v>0.59</v>
       </c>
       <c r="C23">
-        <v>0.98</v>
+        <v>0.43</v>
       </c>
       <c r="D23">
-        <v>1.1000000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>1.1000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D24">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,16 +3332,16 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>0.49</v>
+        <v>1.35</v>
       </c>
       <c r="C25">
-        <v>0.4</v>
+        <v>1.0001</v>
       </c>
       <c r="D25">
-        <v>0.61</v>
+        <v>1.82</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,16 +3349,16 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>0.66</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C26">
-        <v>0.45</v>
+        <v>0.81</v>
       </c>
       <c r="D26">
-        <v>0.97</v>
+        <v>1.57</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,16 +3366,16 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>1.59</v>
+        <v>0.91</v>
       </c>
       <c r="C27">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="D27">
-        <v>3.17</v>
+        <v>1.23</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,16 +3383,16 @@
         <v>21</v>
       </c>
       <c r="B28">
-        <v>0.51</v>
+        <v>1.29</v>
       </c>
       <c r="C28">
-        <v>0.32</v>
+        <v>0.97</v>
       </c>
       <c r="D28">
-        <v>0.79</v>
+        <v>1.73</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,169 +3400,169 @@
         <v>22</v>
       </c>
       <c r="B29">
-        <v>0.47</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C29">
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="D29">
-        <v>0.73</v>
+        <v>1.51</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="C30">
-        <v>0.56999999999999995</v>
+        <v>0.98</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>1.37</v>
+        <v>0.39</v>
       </c>
       <c r="C31">
-        <v>1.03</v>
+        <v>0.33</v>
       </c>
       <c r="D31">
-        <v>1.83</v>
+        <v>0.45</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>1.1100000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="C32">
-        <v>0.81</v>
+        <v>0.62</v>
       </c>
       <c r="D32">
-        <v>1.52</v>
+        <v>0.77</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="C33">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="D33">
-        <v>1.21</v>
+        <v>0.89</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>1.26</v>
+        <v>2.79</v>
       </c>
       <c r="C34">
-        <v>0.96</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D34">
-        <v>1.66</v>
+        <v>3.42</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>1.1599999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="C35">
-        <v>0.88</v>
+        <v>1.88</v>
       </c>
       <c r="D35">
-        <v>1.52</v>
+        <v>2.9</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
       <c r="C37">
-        <v>0.96</v>
+        <v>0.68</v>
       </c>
       <c r="D37">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.57999999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="D38">
-        <v>0.71</v>
+        <v>1.04</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3576,87 +3570,292 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1.26</v>
+        <v>0.93</v>
       </c>
       <c r="D39">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="C40">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="D40">
-        <v>0.9</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="C41">
-        <v>2.16</v>
+        <v>0.86</v>
       </c>
       <c r="D41">
-        <v>2.94</v>
+        <v>1.26</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>2.04</v>
+        <v>0.97</v>
       </c>
       <c r="C42">
-        <v>1.74</v>
+        <v>0.79</v>
       </c>
       <c r="D42">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="C43">
-        <v>1.36</v>
+        <v>0.84</v>
       </c>
       <c r="D43">
-        <v>2.2000000000000002</v>
+        <v>1.27</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>1.02</v>
+      </c>
+      <c r="C44">
+        <v>0.81</v>
+      </c>
+      <c r="D44">
+        <v>1.27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>1.03</v>
+      </c>
+      <c r="C45">
+        <v>0.85</v>
+      </c>
+      <c r="D45">
+        <v>1.26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46">
+        <v>1.03</v>
+      </c>
+      <c r="C46">
+        <v>0.85</v>
+      </c>
+      <c r="D46">
+        <v>1.25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>1.03</v>
+      </c>
+      <c r="C47">
+        <v>0.85</v>
+      </c>
+      <c r="D47">
+        <v>1.25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.99</v>
+      </c>
+      <c r="D48">
+        <v>1.01</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>0.96</v>
+      </c>
+      <c r="C49">
+        <v>0.87</v>
+      </c>
+      <c r="D49">
+        <v>1.05</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>0.97</v>
+      </c>
+      <c r="C50">
+        <v>0.91</v>
+      </c>
+      <c r="D50">
+        <v>1.04</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>1.02</v>
+      </c>
+      <c r="C51">
+        <v>0.91</v>
+      </c>
+      <c r="D51">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0.92</v>
+      </c>
+      <c r="C52">
+        <v>0.82</v>
+      </c>
+      <c r="D52">
+        <v>1.03</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>1.01</v>
+      </c>
+      <c r="C53">
+        <v>0.91</v>
+      </c>
+      <c r="D53">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>0.99</v>
+      </c>
+      <c r="C54">
+        <v>0.89</v>
+      </c>
+      <c r="D54">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.96</v>
+      </c>
+      <c r="D55">
+        <v>1.04</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3_intermediate/OR_import.xlsx
+++ b/3_intermediate/OR_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Prov_5_inc" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="35">
   <si>
     <t>OR</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Traveling Distance (per 25km)</t>
+  </si>
+  <si>
+    <t>NL &amp; NS</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,16 +487,16 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C2">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D2">
         <v>1.21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,16 +504,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,16 +521,16 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="C4">
-        <v>0.96</v>
+        <v>0.81</v>
       </c>
       <c r="D4">
-        <v>2.33</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,16 +538,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="C5">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="D5">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,16 +555,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="C6">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="D6">
-        <v>2.96</v>
+        <v>3.67</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,16 +572,16 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="C7">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="D7">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,16 +589,16 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.1200000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="C8">
         <v>0.54</v>
       </c>
       <c r="D8">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,16 +606,16 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.69</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D9">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,16 +623,16 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C10">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D10">
-        <v>2.2999999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,16 +640,16 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="C11">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,33 +657,33 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="C13">
+        <v>0.48</v>
+      </c>
+      <c r="D13">
         <v>0.97</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,16 +691,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="C14">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="D14">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,16 +708,16 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>0.91</v>
+        <v>0.38</v>
       </c>
       <c r="C15">
-        <v>0.86</v>
+        <v>0.22</v>
       </c>
       <c r="D15">
-        <v>0.95</v>
+        <v>0.63</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="C16">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="D16">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -739,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C17">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="D17">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -756,13 +759,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D18">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -773,13 +776,13 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="C19">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="D19">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -790,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="C20">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D20">
-        <v>0.94</v>
+        <v>1.32</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -807,13 +810,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="C21">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="D21">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -824,13 +827,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="C22">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="D22">
-        <v>3.59</v>
+        <v>4.22</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -841,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C23">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="D23">
         <v>2.23</v>
@@ -858,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="C24">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
@@ -875,13 +878,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="C25">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="D25">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -892,13 +895,13 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -906,16 +909,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.88</v>
+        <v>0.03</v>
       </c>
       <c r="C27">
-        <v>0.86</v>
+        <v>0.02</v>
       </c>
       <c r="D27">
-        <v>0.89</v>
+        <v>0.06</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -926,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C28">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D28">
         <v>0.33</v>
@@ -943,13 +946,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="C29">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="D29">
-        <v>1.0900000000000001</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E29" t="s">
         <v>24</v>
@@ -960,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B30">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C30">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D30">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -980,10 +983,10 @@
         <v>1.23</v>
       </c>
       <c r="C31">
-        <v>1.0001</v>
+        <v>0.98</v>
       </c>
       <c r="D31">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -994,13 +997,13 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C32">
         <v>0.56000000000000005</v>
       </c>
       <c r="D32">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -1011,13 +1014,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.99</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C33">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="D33">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -1028,13 +1031,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="D34">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -1045,13 +1048,13 @@
         <v>18</v>
       </c>
       <c r="B35">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="C35">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="D35">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -1062,13 +1065,13 @@
         <v>19</v>
       </c>
       <c r="B36">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C36">
         <v>0.28000000000000003</v>
       </c>
       <c r="D36">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -1079,13 +1082,13 @@
         <v>20</v>
       </c>
       <c r="B37">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="C37">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="D37">
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -1096,13 +1099,13 @@
         <v>21</v>
       </c>
       <c r="B38">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="C38">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="D38">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="E38" t="s">
         <v>25</v>
@@ -1113,13 +1116,13 @@
         <v>22</v>
       </c>
       <c r="B39">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
       <c r="C39">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="D39">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -1130,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -1144,16 +1147,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>0.98</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C41">
-        <v>0.97</v>
+        <v>0.41</v>
       </c>
       <c r="D41">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="E41" t="s">
         <v>25</v>
@@ -1164,13 +1167,13 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="C42">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="D42">
-        <v>1.1599999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -1181,13 +1184,13 @@
         <v>31</v>
       </c>
       <c r="B43">
-        <v>0.96</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C43">
-        <v>0.94</v>
+        <v>0.49</v>
       </c>
       <c r="D43">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -1198,13 +1201,13 @@
         <v>13</v>
       </c>
       <c r="B44">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="C44">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="D44">
-        <v>1.1499999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
@@ -1215,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="C45">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="D45">
         <v>1.51</v>
@@ -1232,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B46">
-        <v>1.1100000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="C46">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="D46">
-        <v>2.52</v>
+        <v>3.43</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
@@ -1249,13 +1252,13 @@
         <v>28</v>
       </c>
       <c r="B47">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="C47">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D47">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -1266,13 +1269,13 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="C48">
-        <v>0.57999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="D48">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
@@ -1283,13 +1286,13 @@
         <v>18</v>
       </c>
       <c r="B49">
-        <v>1.93</v>
+        <v>2.17</v>
       </c>
       <c r="C49">
-        <v>1.0001</v>
+        <v>1.07</v>
       </c>
       <c r="D49">
-        <v>3.77</v>
+        <v>4.47</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
@@ -1300,13 +1303,13 @@
         <v>19</v>
       </c>
       <c r="B50">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="C50">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D50">
-        <v>2.5499999999999998</v>
+        <v>2.83</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
@@ -1317,13 +1320,13 @@
         <v>20</v>
       </c>
       <c r="B51">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C51">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="D51">
-        <v>2.11</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -1334,13 +1337,13 @@
         <v>21</v>
       </c>
       <c r="B52">
-        <v>2.09</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C52">
-        <v>1.1100000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="D52">
-        <v>3.95</v>
+        <v>4.87</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -1351,13 +1354,13 @@
         <v>22</v>
       </c>
       <c r="B53">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="C53">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D53">
-        <v>2.74</v>
+        <v>3.14</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
@@ -1371,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -1382,16 +1385,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B55">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="C55">
-        <v>1.0001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D55">
-        <v>1.03</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
@@ -1402,10 +1405,10 @@
         <v>6</v>
       </c>
       <c r="B56">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C56">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="D56">
         <v>1.2</v>
@@ -1419,13 +1422,13 @@
         <v>31</v>
       </c>
       <c r="B57">
+        <v>0.88</v>
+      </c>
+      <c r="C57">
+        <v>0.79</v>
+      </c>
+      <c r="D57">
         <v>0.99</v>
-      </c>
-      <c r="C57">
-        <v>0.98</v>
-      </c>
-      <c r="D57">
-        <v>0.99990000000000001</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
@@ -1436,13 +1439,13 @@
         <v>13</v>
       </c>
       <c r="B58">
-        <v>1.1299999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C58">
         <v>0.99</v>
       </c>
       <c r="D58">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="E58" t="s">
         <v>27</v>
@@ -1453,13 +1456,13 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="C59">
         <v>0.78</v>
       </c>
       <c r="D59">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
@@ -1470,13 +1473,13 @@
         <v>17</v>
       </c>
       <c r="B60">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C60">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="D60">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
@@ -1487,13 +1490,13 @@
         <v>28</v>
       </c>
       <c r="B61">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C61">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D61">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
@@ -1504,13 +1507,13 @@
         <v>10</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="C62">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D62">
-        <v>0.9</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -1521,13 +1524,13 @@
         <v>18</v>
       </c>
       <c r="B63">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="C63">
         <v>1.35</v>
       </c>
       <c r="D63">
-        <v>5.91</v>
+        <v>6.36</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -1538,13 +1541,13 @@
         <v>19</v>
       </c>
       <c r="B64">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C64">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D64">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -1555,13 +1558,13 @@
         <v>20</v>
       </c>
       <c r="B65">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="C65">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D65">
-        <v>3.27</v>
+        <v>3.54</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -1572,13 +1575,13 @@
         <v>21</v>
       </c>
       <c r="B66">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="C66">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="D66">
-        <v>3.52</v>
+        <v>3.97</v>
       </c>
       <c r="E66" t="s">
         <v>27</v>
@@ -1589,13 +1592,13 @@
         <v>22</v>
       </c>
       <c r="B67">
-        <v>2.2599999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="C67">
-        <v>1.1299999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="D67">
-        <v>4.6900000000000004</v>
+        <v>5.21</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
@@ -1606,13 +1609,13 @@
         <v>5</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
@@ -1620,16 +1623,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B69">
-        <v>0.93</v>
+        <v>0.21</v>
       </c>
       <c r="C69">
-        <v>0.92</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D69">
-        <v>0.95</v>
+        <v>0.32</v>
       </c>
       <c r="E69" t="s">
         <v>27</v>
@@ -1640,13 +1643,13 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
       <c r="C70">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="D70">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
@@ -1657,13 +1660,13 @@
         <v>31</v>
       </c>
       <c r="B71">
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
       <c r="C71">
-        <v>0.84</v>
+        <v>0.12</v>
       </c>
       <c r="D71">
-        <v>0.89</v>
+        <v>0.23</v>
       </c>
       <c r="E71" t="s">
         <v>27</v>
@@ -2907,7 +2910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/3_intermediate/OR_import.xlsx
+++ b/3_intermediate/OR_import.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_B9708AF8265197D3B5EE85CB8D8DEF5FE1504004" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54FA9067-EA4A-4050-AA38-B6F9AAA80EA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="11505"/>
+    <workbookView xWindow="1875" yWindow="810" windowWidth="21420" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prov_5_inc" sheetId="3" r:id="rId1"/>
-    <sheet name="Prov_5" sheetId="2" r:id="rId2"/>
-    <sheet name="Reg" sheetId="1" r:id="rId3"/>
+    <sheet name="Reg" sheetId="1" r:id="rId2"/>
+    <sheet name="Prov_5" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prov_5_inc!$A$1:$A$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prov_5_inc!$A$1:$A$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="36">
   <si>
     <t>OR</t>
   </si>
@@ -119,9 +120,6 @@
     <t>Outbreak Peak*</t>
   </si>
   <si>
-    <t>Avg Incidence Rate 15 Days ago</t>
-  </si>
-  <si>
     <t>Weighted</t>
   </si>
   <si>
@@ -130,11 +128,17 @@
   <si>
     <t>NL &amp; NS</t>
   </si>
+  <si>
+    <t>Time: Before April 2021 (ref: April, May 21)</t>
+  </si>
+  <si>
+    <t>Time: After May 2021 (ref: April, May 21)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +494,10 @@
         <v>0.92</v>
       </c>
       <c r="D2">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,16 +505,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1.0900000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="C3">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="D3">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,16 +522,16 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="C4">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="D4">
-        <v>2.0299999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,16 +539,16 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="C5">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="D5">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,16 +556,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.37</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C6">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="D6">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,16 +573,16 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.89</v>
+        <v>0.94</v>
       </c>
       <c r="C7">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D7">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,16 +590,16 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="C8">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,16 +607,16 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="C9">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D9">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,16 +624,16 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1.1599999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="C10">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D10">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,16 +641,16 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>1.03</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D11">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,30 +661,30 @@
         <v>1.01</v>
       </c>
       <c r="C12">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D12">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0.62</v>
+      </c>
+      <c r="C13">
+        <v>0.43</v>
+      </c>
+      <c r="D13">
+        <v>0.9</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0.68</v>
-      </c>
-      <c r="C13">
-        <v>0.48</v>
-      </c>
-      <c r="D13">
-        <v>0.97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,64 +692,64 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="C14">
         <v>1.06</v>
       </c>
       <c r="D14">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15">
-        <v>0.38</v>
+        <v>3.23</v>
       </c>
       <c r="C15">
-        <v>0.22</v>
+        <v>2.29</v>
       </c>
       <c r="D15">
-        <v>0.63</v>
+        <v>4.57</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>1.08</v>
+        <v>3.75</v>
       </c>
       <c r="C16">
-        <v>0.91</v>
+        <v>2.75</v>
       </c>
       <c r="D16">
-        <v>1.28</v>
+        <v>5.15</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>1.0900000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="C17">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="D17">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -756,16 +757,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>0.06</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C18">
-        <v>0.03</v>
+        <v>0.83</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>1.54</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -773,16 +774,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.06</v>
       </c>
       <c r="C19">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="D19">
-        <v>1.42</v>
+        <v>0.11</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -790,16 +791,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
       <c r="C20">
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="D20">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -807,16 +808,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>1.58</v>
+        <v>0.51</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="D21">
-        <v>3.12</v>
+        <v>1.56</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -824,16 +825,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="C22">
-        <v>0.94</v>
+        <v>0.82</v>
       </c>
       <c r="D22">
-        <v>4.22</v>
+        <v>3.52</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -841,16 +842,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>1.1499999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="C23">
-        <v>0.6</v>
+        <v>0.94</v>
       </c>
       <c r="D23">
-        <v>2.23</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -858,16 +859,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="D24">
-        <v>1.81</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
@@ -875,16 +876,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>0.77</v>
+        <v>1.03</v>
       </c>
       <c r="C25">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="D25">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -892,16 +893,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="C26">
-        <v>0.93</v>
+        <v>0.39</v>
       </c>
       <c r="D26">
-        <v>0.99</v>
+        <v>1.57</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -909,16 +910,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>0.03</v>
+        <v>0.96</v>
       </c>
       <c r="C27">
-        <v>0.02</v>
+        <v>0.93</v>
       </c>
       <c r="D27">
-        <v>0.06</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -926,16 +927,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="C28">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="D28">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
@@ -943,16 +944,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>1.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C29">
-        <v>0.99</v>
+        <v>0.38</v>
       </c>
       <c r="D29">
-        <v>2.0699999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="E29" t="s">
         <v>24</v>
@@ -960,50 +961,50 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.95</v>
+        <v>0.32</v>
       </c>
       <c r="C30">
-        <v>0.84</v>
+        <v>0.16</v>
       </c>
       <c r="D30">
-        <v>1.07</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>1.23</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C31">
-        <v>0.98</v>
+        <v>2.75</v>
       </c>
       <c r="D31">
-        <v>1.55</v>
+        <v>6.32</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="C32">
-        <v>0.56000000000000005</v>
+        <v>0.82</v>
       </c>
       <c r="D32">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -1011,16 +1012,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="C33">
-        <v>0.67</v>
+        <v>1.0001</v>
       </c>
       <c r="D33">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -1028,16 +1029,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="C34">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="D34">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -1045,16 +1046,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
       <c r="C35">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="D35">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -1062,16 +1063,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>0.63</v>
+        <v>0.99</v>
       </c>
       <c r="C36">
-        <v>0.28000000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="D36">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -1079,16 +1080,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="C37">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="D37">
-        <v>1.1499999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -1096,16 +1097,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="C38">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D38">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="E38" t="s">
         <v>25</v>
@@ -1113,16 +1114,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="C39">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="D39">
-        <v>1.34</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -1130,16 +1131,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="C40">
-        <v>0.96</v>
+        <v>0.45</v>
       </c>
       <c r="D40">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -1147,16 +1148,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="C41">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="D41">
-        <v>0.77</v>
+        <v>1.39</v>
       </c>
       <c r="E41" t="s">
         <v>25</v>
@@ -1164,16 +1165,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C42">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="D42">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
@@ -1181,16 +1182,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C43">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="D43">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -1198,67 +1199,67 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>1.08</v>
+        <v>1.63</v>
       </c>
       <c r="C44">
-        <v>0.94</v>
+        <v>1.21</v>
       </c>
       <c r="D44">
-        <v>1.23</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B45">
-        <v>1.19</v>
+        <v>1.67</v>
       </c>
       <c r="C45">
-        <v>0.93</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D45">
-        <v>1.51</v>
+        <v>2.42</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B46">
-        <v>1.35</v>
+        <v>4.45</v>
       </c>
       <c r="C46">
-        <v>0.53</v>
+        <v>3.22</v>
       </c>
       <c r="D46">
-        <v>3.43</v>
+        <v>6.19</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>0.54</v>
+        <v>1.07</v>
       </c>
       <c r="C47">
-        <v>0.16</v>
+        <v>0.93</v>
       </c>
       <c r="D47">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -1266,16 +1267,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>0.94</v>
+        <v>1.18</v>
       </c>
       <c r="C48">
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
       <c r="D48">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
@@ -1283,16 +1284,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>2.17</v>
+        <v>1.41</v>
       </c>
       <c r="C49">
-        <v>1.07</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D49">
-        <v>4.47</v>
+        <v>3.59</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
@@ -1300,16 +1301,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>1.28</v>
+        <v>0.59</v>
       </c>
       <c r="C50">
-        <v>0.57999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="D50">
-        <v>2.83</v>
+        <v>1.99</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
@@ -1317,16 +1318,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>1.1000000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="C51">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="D51">
-        <v>2.2599999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -1334,16 +1335,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>2.4300000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="C52">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="D52">
-        <v>4.87</v>
+        <v>4.05</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -1351,16 +1352,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>1.55</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C53">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="D53">
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
@@ -1368,16 +1369,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C54">
-        <v>0.98</v>
+        <v>0.47</v>
       </c>
       <c r="D54">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -1385,16 +1386,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="C55">
-        <v>1.1100000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="D55">
-        <v>2.4700000000000002</v>
+        <v>4.24</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
@@ -1402,16 +1403,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>0.94</v>
+        <v>1.32</v>
       </c>
       <c r="C56">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="D56">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="E56" t="s">
         <v>26</v>
@@ -1419,16 +1420,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="D57">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="E57" t="s">
         <v>26</v>
@@ -1436,84 +1437,84 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>1.1399999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="C58">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="D58">
-        <v>1.32</v>
+        <v>2.35</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="C59">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="D59">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B60">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="C60">
-        <v>0.13</v>
+        <v>1.87</v>
       </c>
       <c r="D60">
-        <v>0.54</v>
+        <v>3.83</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>0.25</v>
+        <v>1.77</v>
       </c>
       <c r="C61">
-        <v>0.11</v>
+        <v>1.3</v>
       </c>
       <c r="D61">
-        <v>0.56000000000000005</v>
+        <v>2.41</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>0.59</v>
+        <v>1.04</v>
       </c>
       <c r="C62">
-        <v>0.28999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="D62">
-        <v>1.1399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -1521,16 +1522,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>2.87</v>
+        <v>1.03</v>
       </c>
       <c r="C63">
-        <v>1.35</v>
+        <v>0.79</v>
       </c>
       <c r="D63">
-        <v>6.36</v>
+        <v>1.34</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -1538,16 +1539,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="C64">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D64">
-        <v>1.63</v>
+        <v>0.54</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -1555,16 +1556,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>1.63</v>
+        <v>0.27</v>
       </c>
       <c r="C65">
-        <v>0.78</v>
+        <v>0.12</v>
       </c>
       <c r="D65">
-        <v>3.54</v>
+        <v>0.6</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -1572,16 +1573,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>1.84</v>
+        <v>0.73</v>
       </c>
       <c r="C66">
-        <v>0.89</v>
+        <v>0.36</v>
       </c>
       <c r="D66">
-        <v>3.97</v>
+        <v>1.38</v>
       </c>
       <c r="E66" t="s">
         <v>27</v>
@@ -1589,16 +1590,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>2.42</v>
+        <v>3.01</v>
       </c>
       <c r="C67">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="D67">
-        <v>5.21</v>
+        <v>6.73</v>
       </c>
       <c r="E67" t="s">
         <v>27</v>
@@ -1606,16 +1607,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="C68">
-        <v>0.96</v>
+        <v>0.26</v>
       </c>
       <c r="D68">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="E68" t="s">
         <v>27</v>
@@ -1623,16 +1624,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>0.21</v>
+        <v>1.65</v>
       </c>
       <c r="C69">
-        <v>0.14000000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D69">
-        <v>0.32</v>
+        <v>3.63</v>
       </c>
       <c r="E69" t="s">
         <v>27</v>
@@ -1640,16 +1641,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>0.59</v>
+        <v>1.73</v>
       </c>
       <c r="C70">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="D70">
-        <v>0.77</v>
+        <v>3.78</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
@@ -1657,18 +1658,103 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>0.17</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C71">
+        <v>1.2</v>
+      </c>
+      <c r="D71">
+        <v>5.46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>0.98</v>
+      </c>
+      <c r="C72">
+        <v>0.96</v>
+      </c>
+      <c r="D72">
+        <v>1.01</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>0.18</v>
+      </c>
+      <c r="C73">
         <v>0.12</v>
       </c>
-      <c r="D71">
-        <v>0.23</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D73">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>1.2</v>
+      </c>
+      <c r="C74">
+        <v>0.86</v>
+      </c>
+      <c r="D74">
+        <v>1.67</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C75">
+        <v>2.99</v>
+      </c>
+      <c r="D75">
+        <v>7.03</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76">
+        <v>7.05</v>
+      </c>
+      <c r="C76">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D76">
+        <v>10.1</v>
+      </c>
+      <c r="E76" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1679,10 +1765,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1.04</v>
+      </c>
+      <c r="C2">
+        <v>0.99</v>
+      </c>
+      <c r="D2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.02</v>
+      </c>
+      <c r="D3">
+        <v>1.23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.87</v>
+      </c>
+      <c r="C4">
+        <v>0.72</v>
+      </c>
+      <c r="D4">
+        <v>1.05</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0.73</v>
+      </c>
+      <c r="C5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.63</v>
+      </c>
+      <c r="C6">
+        <v>0.49</v>
+      </c>
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1.38</v>
+      </c>
+      <c r="C7">
+        <v>1.06</v>
+      </c>
+      <c r="D7">
+        <v>1.81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.82</v>
+      </c>
+      <c r="D8">
+        <v>1.47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.91</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>1.19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1.35</v>
+      </c>
+      <c r="C10">
+        <v>1.05</v>
+      </c>
+      <c r="D10">
+        <v>1.74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1.27</v>
+      </c>
+      <c r="C11">
+        <v>0.98</v>
+      </c>
+      <c r="D11">
+        <v>1.64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.99</v>
+      </c>
+      <c r="C12">
+        <v>0.98</v>
+      </c>
+      <c r="D12">
+        <v>1.0001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0.51</v>
+      </c>
+      <c r="C13">
+        <v>0.45</v>
+      </c>
+      <c r="D13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.62</v>
+      </c>
+      <c r="C14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1.63</v>
+      </c>
+      <c r="C15">
+        <v>1.4</v>
+      </c>
+      <c r="D15">
+        <v>1.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.72</v>
+      </c>
+      <c r="C16">
+        <v>0.62</v>
+      </c>
+      <c r="D16">
+        <v>0.84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.14</v>
+      </c>
+      <c r="C17">
+        <v>1.85</v>
+      </c>
+      <c r="D17">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.94</v>
+      </c>
+      <c r="C18">
+        <v>1.67</v>
+      </c>
+      <c r="D18">
+        <v>2.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3.57</v>
+      </c>
+      <c r="C19">
+        <v>3.19</v>
+      </c>
+      <c r="D19">
+        <v>3.99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>1.74</v>
+      </c>
+      <c r="C20">
+        <v>1.52</v>
+      </c>
+      <c r="D20">
+        <v>1.99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1.01</v>
+      </c>
+      <c r="C21">
+        <v>0.95</v>
+      </c>
+      <c r="D21">
+        <v>1.08</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1.0001</v>
+      </c>
+      <c r="D22">
+        <v>1.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0.48</v>
+      </c>
+      <c r="C23">
+        <v>0.38</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.42</v>
+      </c>
+      <c r="D24">
+        <v>0.78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.83</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1.4</v>
+      </c>
+      <c r="C26">
+        <v>1.02</v>
+      </c>
+      <c r="D26">
+        <v>1.91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.81</v>
+      </c>
+      <c r="D27">
+        <v>1.61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0.92</v>
+      </c>
+      <c r="C28">
+        <v>0.68</v>
+      </c>
+      <c r="D28">
+        <v>1.25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>1.31</v>
+      </c>
+      <c r="C29">
+        <v>0.97</v>
+      </c>
+      <c r="D29">
+        <v>1.76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.85</v>
+      </c>
+      <c r="D30">
+        <v>1.54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.99</v>
+      </c>
+      <c r="C31">
+        <v>0.98</v>
+      </c>
+      <c r="D31">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.37</v>
+      </c>
+      <c r="C32">
+        <v>0.31</v>
+      </c>
+      <c r="D32">
+        <v>0.43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D33">
+        <v>1.31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1.33</v>
+      </c>
+      <c r="C34">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0.74</v>
+      </c>
+      <c r="C35">
+        <v>0.62</v>
+      </c>
+      <c r="D35">
+        <v>0.88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>2.4</v>
+      </c>
+      <c r="C36">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D36">
+        <v>2.84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>1.79</v>
+      </c>
+      <c r="C37">
+        <v>1.51</v>
+      </c>
+      <c r="D37">
+        <v>2.13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>3.89</v>
+      </c>
+      <c r="C38">
+        <v>3.36</v>
+      </c>
+      <c r="D38">
+        <v>4.51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C39">
+        <v>1.93</v>
+      </c>
+      <c r="D39">
+        <v>2.66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>1.01</v>
+      </c>
+      <c r="C41">
+        <v>0.94</v>
+      </c>
+      <c r="D41">
+        <v>1.08</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.87</v>
+      </c>
+      <c r="D42">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>1.07</v>
+      </c>
+      <c r="C43">
+        <v>0.88</v>
+      </c>
+      <c r="D43">
+        <v>1.29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0.95</v>
+      </c>
+      <c r="C44">
+        <v>0.77</v>
+      </c>
+      <c r="D44">
+        <v>1.17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>1.02</v>
+      </c>
+      <c r="C45">
+        <v>0.83</v>
+      </c>
+      <c r="D45">
+        <v>1.25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>1.01</v>
+      </c>
+      <c r="C46">
+        <v>0.81</v>
+      </c>
+      <c r="D46">
+        <v>1.27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>1.03</v>
+      </c>
+      <c r="C47">
+        <v>0.84</v>
+      </c>
+      <c r="D47">
+        <v>1.26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>1.02</v>
+      </c>
+      <c r="C48">
+        <v>0.84</v>
+      </c>
+      <c r="D48">
+        <v>1.23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>1.01</v>
+      </c>
+      <c r="C49">
+        <v>0.83</v>
+      </c>
+      <c r="D49">
+        <v>1.23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.99</v>
+      </c>
+      <c r="D50">
+        <v>1.01</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>0.96</v>
+      </c>
+      <c r="C51">
+        <v>0.88</v>
+      </c>
+      <c r="D51">
+        <v>1.05</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>0.98</v>
+      </c>
+      <c r="C52">
+        <v>0.91</v>
+      </c>
+      <c r="D52">
+        <v>1.05</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>1.03</v>
+      </c>
+      <c r="C53">
+        <v>0.92</v>
+      </c>
+      <c r="D53">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.95</v>
+      </c>
+      <c r="C54">
+        <v>0.84</v>
+      </c>
+      <c r="D54">
+        <v>1.06</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>1.01</v>
+      </c>
+      <c r="C55">
+        <v>0.91</v>
+      </c>
+      <c r="D55">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>0.99</v>
+      </c>
+      <c r="C56">
+        <v>0.88</v>
+      </c>
+      <c r="D56">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>0.98</v>
+      </c>
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <v>1.06</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>1.01</v>
+      </c>
+      <c r="C58">
+        <v>0.9</v>
+      </c>
+      <c r="D58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -2904,961 +3998,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1.04</v>
-      </c>
-      <c r="C2">
-        <v>0.99</v>
-      </c>
-      <c r="D2">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.02</v>
-      </c>
-      <c r="D3">
-        <v>1.23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0.87</v>
-      </c>
-      <c r="C4">
-        <v>0.72</v>
-      </c>
-      <c r="D4">
-        <v>1.05</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>0.73</v>
-      </c>
-      <c r="C5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D5">
-        <v>0.94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.63</v>
-      </c>
-      <c r="C6">
-        <v>0.49</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1.38</v>
-      </c>
-      <c r="C7">
-        <v>1.06</v>
-      </c>
-      <c r="D7">
-        <v>1.81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.82</v>
-      </c>
-      <c r="D8">
-        <v>1.47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>0.91</v>
-      </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <v>1.19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>1.35</v>
-      </c>
-      <c r="C10">
-        <v>1.05</v>
-      </c>
-      <c r="D10">
-        <v>1.74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1.27</v>
-      </c>
-      <c r="C11">
-        <v>0.98</v>
-      </c>
-      <c r="D11">
-        <v>1.64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>0.99</v>
-      </c>
-      <c r="C12">
-        <v>0.98</v>
-      </c>
-      <c r="D12">
-        <v>1.0001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0.51</v>
-      </c>
-      <c r="C13">
-        <v>0.45</v>
-      </c>
-      <c r="D13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>0.62</v>
-      </c>
-      <c r="C14">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D14">
-        <v>0.68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1.63</v>
-      </c>
-      <c r="C15">
-        <v>1.4</v>
-      </c>
-      <c r="D15">
-        <v>1.9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.72</v>
-      </c>
-      <c r="C16">
-        <v>0.62</v>
-      </c>
-      <c r="D16">
-        <v>0.84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2.14</v>
-      </c>
-      <c r="C17">
-        <v>1.85</v>
-      </c>
-      <c r="D17">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.94</v>
-      </c>
-      <c r="C18">
-        <v>1.67</v>
-      </c>
-      <c r="D18">
-        <v>2.25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>0.9</v>
-      </c>
-      <c r="C19">
-        <v>0.85</v>
-      </c>
-      <c r="D19">
-        <v>0.95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
-      <c r="C20">
-        <v>0.99</v>
-      </c>
-      <c r="D20">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C21">
-        <v>1.0001</v>
-      </c>
-      <c r="D21">
-        <v>1.24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>0.48</v>
-      </c>
-      <c r="C22">
-        <v>0.38</v>
-      </c>
-      <c r="D22">
-        <v>0.6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.59</v>
-      </c>
-      <c r="C23">
-        <v>0.43</v>
-      </c>
-      <c r="D23">
-        <v>0.79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>0.77</v>
-      </c>
-      <c r="C24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D24">
-        <v>1.05</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>1.35</v>
-      </c>
-      <c r="C25">
-        <v>1.0001</v>
-      </c>
-      <c r="D25">
-        <v>1.82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C26">
-        <v>0.81</v>
-      </c>
-      <c r="D26">
-        <v>1.57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>0.91</v>
-      </c>
-      <c r="C27">
-        <v>0.68</v>
-      </c>
-      <c r="D27">
-        <v>1.23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>1.29</v>
-      </c>
-      <c r="C28">
-        <v>0.97</v>
-      </c>
-      <c r="D28">
-        <v>1.73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C29">
-        <v>0.84</v>
-      </c>
-      <c r="D29">
-        <v>1.51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>0.99</v>
-      </c>
-      <c r="C30">
-        <v>0.98</v>
-      </c>
-      <c r="D30">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>0.39</v>
-      </c>
-      <c r="C31">
-        <v>0.33</v>
-      </c>
-      <c r="D31">
-        <v>0.45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>0.69</v>
-      </c>
-      <c r="C32">
-        <v>0.62</v>
-      </c>
-      <c r="D32">
-        <v>0.77</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>0.73</v>
-      </c>
-      <c r="C33">
-        <v>0.61</v>
-      </c>
-      <c r="D33">
-        <v>0.89</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34">
-        <v>2.79</v>
-      </c>
-      <c r="C34">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D34">
-        <v>3.42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <v>2.34</v>
-      </c>
-      <c r="C35">
-        <v>1.88</v>
-      </c>
-      <c r="D35">
-        <v>2.9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>1.04</v>
-      </c>
-      <c r="C36">
-        <v>0.86</v>
-      </c>
-      <c r="D36">
-        <v>1.26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>0.74</v>
-      </c>
-      <c r="C37">
-        <v>0.68</v>
-      </c>
-      <c r="D37">
-        <v>0.8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0.96</v>
-      </c>
-      <c r="D38">
-        <v>1.04</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0.93</v>
-      </c>
-      <c r="D39">
-        <v>1.07</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>0.99</v>
-      </c>
-      <c r="C40">
-        <v>0.86</v>
-      </c>
-      <c r="D40">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41">
-        <v>1.04</v>
-      </c>
-      <c r="C41">
-        <v>0.86</v>
-      </c>
-      <c r="D41">
-        <v>1.26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>0.97</v>
-      </c>
-      <c r="C42">
-        <v>0.79</v>
-      </c>
-      <c r="D42">
-        <v>1.19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43">
-        <v>1.03</v>
-      </c>
-      <c r="C43">
-        <v>0.84</v>
-      </c>
-      <c r="D43">
-        <v>1.27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44">
-        <v>1.02</v>
-      </c>
-      <c r="C44">
-        <v>0.81</v>
-      </c>
-      <c r="D44">
-        <v>1.27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45">
-        <v>1.03</v>
-      </c>
-      <c r="C45">
-        <v>0.85</v>
-      </c>
-      <c r="D45">
-        <v>1.26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46">
-        <v>1.03</v>
-      </c>
-      <c r="C46">
-        <v>0.85</v>
-      </c>
-      <c r="D46">
-        <v>1.25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>1.03</v>
-      </c>
-      <c r="C47">
-        <v>0.85</v>
-      </c>
-      <c r="D47">
-        <v>1.25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0.99</v>
-      </c>
-      <c r="D48">
-        <v>1.01</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49">
-        <v>0.96</v>
-      </c>
-      <c r="C49">
-        <v>0.87</v>
-      </c>
-      <c r="D49">
-        <v>1.05</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>0.97</v>
-      </c>
-      <c r="C50">
-        <v>0.91</v>
-      </c>
-      <c r="D50">
-        <v>1.04</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51">
-        <v>1.02</v>
-      </c>
-      <c r="C51">
-        <v>0.91</v>
-      </c>
-      <c r="D51">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52">
-        <v>0.92</v>
-      </c>
-      <c r="C52">
-        <v>0.82</v>
-      </c>
-      <c r="D52">
-        <v>1.03</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53">
-        <v>1.01</v>
-      </c>
-      <c r="C53">
-        <v>0.91</v>
-      </c>
-      <c r="D53">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54">
-        <v>0.99</v>
-      </c>
-      <c r="C54">
-        <v>0.89</v>
-      </c>
-      <c r="D54">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0.96</v>
-      </c>
-      <c r="D55">
-        <v>1.04</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/3_intermediate/OR_import.xlsx
+++ b/3_intermediate/OR_import.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_B9708AF8265197D3B5EE85CB8D8DEF5FE1504004" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54FA9067-EA4A-4050-AA38-B6F9AAA80EA8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_B9708AF8265197D3B5EE85CB8D8DEF5FE1504004" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02353AA5-0095-43D2-B2F7-0352074654AB}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="810" windowWidth="21420" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prov_5_inc" sheetId="3" r:id="rId1"/>
-    <sheet name="Reg" sheetId="1" r:id="rId2"/>
-    <sheet name="Prov_5" sheetId="2" r:id="rId3"/>
+    <sheet name="Reg" sheetId="5" r:id="rId1"/>
+    <sheet name="Prov_5" sheetId="4" r:id="rId2"/>
+    <sheet name="Prov_5_inc" sheetId="3" r:id="rId3"/>
+    <sheet name="Reg_old" sheetId="1" r:id="rId4"/>
+    <sheet name="Prov_5_old" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prov_5_inc!$A$1:$A$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Prov_5_inc!$A$1:$A$75</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="38">
   <si>
     <t>OR</t>
   </si>
@@ -96,16 +109,10 @@
     <t>Edu: Graduate (ref: &lt;High School)</t>
   </si>
   <si>
-    <t>NFL &amp; NS</t>
-  </si>
-  <si>
     <t>QC</t>
   </si>
   <si>
     <t>ON</t>
-  </si>
-  <si>
-    <t>MT &amp; AB</t>
   </si>
   <si>
     <t>BC</t>
@@ -134,17 +141,43 @@
   <si>
     <t>Time: After May 2021 (ref: April, May 21)</t>
   </si>
+  <si>
+    <t>NL &amp; NS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB &amp; AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>higher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,10 +203,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,6 +219,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,2342 +487,3569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB50B34-60E0-4C2E-A94E-BA92B18BAC8E}">
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>1.06</v>
-      </c>
-      <c r="C2">
-        <v>0.92</v>
-      </c>
-      <c r="D2">
-        <v>1.22</v>
+      <c r="B2" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0101010101010102</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1.01</v>
-      </c>
-      <c r="C3">
-        <v>0.78</v>
-      </c>
-      <c r="D3">
-        <v>1.3</v>
+      <c r="B3" s="1">
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.81300813008130079</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.98039215686274506</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>1.35</v>
-      </c>
-      <c r="C4">
-        <v>0.84</v>
-      </c>
-      <c r="D4">
-        <v>2.19</v>
+      <c r="B4" s="1">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.3888888888888888</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>0.63</v>
-      </c>
-      <c r="C5">
-        <v>0.22</v>
-      </c>
-      <c r="D5">
-        <v>1.67</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.7857142857142856</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.44</v>
-      </c>
-      <c r="D6">
-        <v>3.27</v>
+      <c r="B6" s="1">
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.0408163265306123</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>0.94</v>
-      </c>
-      <c r="C7">
-        <v>0.43</v>
-      </c>
-      <c r="D7">
-        <v>2.02</v>
+      <c r="B7" s="1">
+        <v>0.7246376811594204</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5524861878453039</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.94339622641509424</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1.32</v>
-      </c>
-      <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <v>2.9</v>
+      <c r="B8" s="1">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.68027210884353739</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2195121951219512</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>0.81</v>
-      </c>
-      <c r="C9">
-        <v>0.38</v>
-      </c>
-      <c r="D9">
-        <v>1.74</v>
+      <c r="B9" s="1">
+        <v>1.0989010989010988</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.84033613445378152</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.4285714285714286</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>1.21</v>
-      </c>
-      <c r="C10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D10">
-        <v>2.52</v>
+      <c r="B10" s="1">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.95238095238095233</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D11">
-        <v>2.42</v>
+      <c r="B11" s="1">
+        <v>0.78740157480314954</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0204081632653061</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>1.01</v>
-      </c>
-      <c r="C12">
-        <v>0.97</v>
-      </c>
-      <c r="D12">
-        <v>1.02</v>
+      <c r="B12" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99990000999900008</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0204081632653061</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.62</v>
-      </c>
-      <c r="C13">
-        <v>0.43</v>
-      </c>
-      <c r="D13">
-        <v>0.9</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7241379310344829</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.2222222222222223</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>1.44</v>
-      </c>
-      <c r="C14">
-        <v>1.06</v>
-      </c>
-      <c r="D14">
-        <v>1.96</v>
+      <c r="B14" s="1">
+        <v>1.6129032258064517</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7543859649122808</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
-        <v>3.23</v>
-      </c>
-      <c r="C15">
-        <v>2.29</v>
-      </c>
-      <c r="D15">
-        <v>4.57</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.61349693251533743</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>3.75</v>
-      </c>
-      <c r="C16">
-        <v>2.75</v>
-      </c>
-      <c r="D16">
-        <v>5.15</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.6129032258064517</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1.04</v>
-      </c>
-      <c r="C17">
-        <v>0.87</v>
-      </c>
-      <c r="D17">
-        <v>1.24</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.46728971962616822</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.40485829959514169</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.54054054054054046</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C18">
-        <v>0.83</v>
-      </c>
-      <c r="D18">
-        <v>1.54</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.51546391752577325</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.5988023952095809</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.06</v>
-      </c>
-      <c r="C19">
-        <v>0.04</v>
-      </c>
-      <c r="D19">
-        <v>0.11</v>
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.28011204481792717</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.25062656641604009</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.31347962382445144</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>0.76</v>
-      </c>
-      <c r="C20">
-        <v>0.38</v>
-      </c>
-      <c r="D20">
-        <v>1.5</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.50251256281407031</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.65789473684210531</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>0.51</v>
-      </c>
-      <c r="C21">
-        <v>0.15</v>
-      </c>
-      <c r="D21">
-        <v>1.56</v>
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.0526315789473684</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>1.69</v>
-      </c>
-      <c r="C22">
-        <v>0.82</v>
-      </c>
-      <c r="D22">
-        <v>3.52</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99990000999900008</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>2.06</v>
-      </c>
-      <c r="C23">
-        <v>0.94</v>
-      </c>
-      <c r="D23">
-        <v>4.5599999999999996</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.6315789473684212</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>1.22</v>
-      </c>
-      <c r="C24">
-        <v>0.61</v>
-      </c>
-      <c r="D24">
-        <v>2.4700000000000002</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.7543859649122808</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.3809523809523809</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>1.03</v>
-      </c>
-      <c r="C25">
-        <v>0.53</v>
-      </c>
-      <c r="D25">
-        <v>2.06</v>
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6666666666666667</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>0.78</v>
-      </c>
-      <c r="C26">
-        <v>0.39</v>
-      </c>
-      <c r="D26">
-        <v>1.57</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.52356020942408377</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.98039215686274506</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>0.96</v>
-      </c>
-      <c r="C27">
-        <v>0.93</v>
-      </c>
-      <c r="D27">
-        <v>0.99990000000000001</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.2345679012345678</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>0.03</v>
-      </c>
-      <c r="C28">
-        <v>0.02</v>
-      </c>
-      <c r="D28">
-        <v>0.06</v>
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.4705882352941175</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C29">
-        <v>0.38</v>
-      </c>
-      <c r="D29">
-        <v>0.8</v>
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.0309278350515465</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.32</v>
-      </c>
-      <c r="C30">
-        <v>0.16</v>
-      </c>
-      <c r="D30">
-        <v>0.6</v>
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.1764705882352942</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C31">
-        <v>2.75</v>
-      </c>
-      <c r="D31">
-        <v>6.32</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.000100010001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.0204081632653061</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32">
-        <v>0.93</v>
-      </c>
-      <c r="C32">
-        <v>0.82</v>
-      </c>
-      <c r="D32">
-        <v>1.05</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.7027027027027026</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.2258064516129035</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <v>1.25</v>
-      </c>
-      <c r="C33">
-        <v>1.0001</v>
-      </c>
-      <c r="D33">
-        <v>1.58</v>
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.000100010001</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>0.88</v>
-      </c>
-      <c r="C34">
-        <v>0.54</v>
-      </c>
-      <c r="D34">
-        <v>1.43</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.75187969924812026</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.89285714285714279</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35">
-        <v>1.04</v>
-      </c>
-      <c r="C35">
-        <v>0.6</v>
-      </c>
-      <c r="D35">
-        <v>1.81</v>
+        <v>14</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.3513513513513513</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.6129032258064517</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>0.99</v>
-      </c>
-      <c r="C36">
-        <v>0.51</v>
-      </c>
-      <c r="D36">
-        <v>1.94</v>
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.35211267605633806</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.49261083743842371</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <v>0.87</v>
-      </c>
-      <c r="C37">
-        <v>0.43</v>
-      </c>
-      <c r="D37">
-        <v>1.72</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.55865921787709494</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.46948356807511737</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.66225165562913912</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38">
-        <v>0.65</v>
-      </c>
-      <c r="C38">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D38">
-        <v>1.49</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.25706940874035988</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.22172949002217296</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.29761904761904762</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>0.6</v>
-      </c>
-      <c r="C39">
-        <v>0.3</v>
-      </c>
-      <c r="D39">
-        <v>1.1599999999999999</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.44247787610619471</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.37593984962406013</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.5181347150259068</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40">
-        <v>0.88</v>
-      </c>
-      <c r="C40">
-        <v>0.45</v>
-      </c>
-      <c r="D40">
-        <v>1.69</v>
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.0416666666666667</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>0.72</v>
-      </c>
-      <c r="C41">
-        <v>0.36</v>
-      </c>
-      <c r="D41">
-        <v>1.39</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.0638297872340425</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>0.99</v>
-      </c>
-      <c r="C42">
-        <v>0.96</v>
-      </c>
-      <c r="D42">
-        <v>1.01</v>
+        <v>17</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.1494252873563218</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C43">
-        <v>0.4</v>
-      </c>
-      <c r="D43">
-        <v>0.76</v>
+        <v>26</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.77519379844961234</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.1363636363636365</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>1.63</v>
-      </c>
-      <c r="C44">
-        <v>1.21</v>
-      </c>
-      <c r="D44">
-        <v>2.2000000000000002</v>
+        <v>10</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.85470085470085477</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.2987012987012987</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45">
-        <v>1.67</v>
-      </c>
-      <c r="C45">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D45">
-        <v>2.42</v>
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.2048192771084338</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46">
-        <v>4.45</v>
-      </c>
-      <c r="C46">
-        <v>3.22</v>
-      </c>
-      <c r="D46">
-        <v>6.19</v>
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.78740157480314954</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.2345679012345678</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47">
-        <v>1.07</v>
-      </c>
-      <c r="C47">
-        <v>0.93</v>
-      </c>
-      <c r="D47">
-        <v>1.22</v>
+        <v>20</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.79365079365079361</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.1904761904761905</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48">
-        <v>1.18</v>
-      </c>
-      <c r="C48">
-        <v>0.92</v>
-      </c>
-      <c r="D48">
-        <v>1.51</v>
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.81300813008130079</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.1904761904761905</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>1.41</v>
-      </c>
-      <c r="C49">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D49">
-        <v>3.59</v>
+        <v>22</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.81300813008130079</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.2048192771084338</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50">
-        <v>0.59</v>
-      </c>
-      <c r="C50">
-        <v>0.17</v>
-      </c>
-      <c r="D50">
-        <v>1.99</v>
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0101010101010102</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51">
-        <v>0.96</v>
-      </c>
-      <c r="C51">
-        <v>0.51</v>
-      </c>
-      <c r="D51">
-        <v>1.8</v>
+        <v>30</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.1363636363636365</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52">
-        <v>1.95</v>
-      </c>
-      <c r="C52">
-        <v>0.95</v>
-      </c>
-      <c r="D52">
-        <v>4.05</v>
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.0989010989010988</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="C53">
-        <v>0.49</v>
-      </c>
-      <c r="D53">
-        <v>2.44</v>
+        <v>11</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.86956521739130443</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.0869565217391304</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
-        <v>0.96</v>
-      </c>
-      <c r="C54">
-        <v>0.47</v>
-      </c>
-      <c r="D54">
-        <v>1.98</v>
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.1904761904761905</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55">
-        <v>2.1</v>
-      </c>
-      <c r="C55">
-        <v>1.05</v>
-      </c>
-      <c r="D55">
-        <v>4.24</v>
+        <v>15</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1.0989010989010988</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56">
-        <v>1.32</v>
-      </c>
-      <c r="C56">
-        <v>0.65</v>
-      </c>
-      <c r="D56">
-        <v>2.7</v>
+        <v>16</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.9009009009009008</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.1363636363636365</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0.97</v>
-      </c>
-      <c r="D57">
-        <v>1.02</v>
+        <v>32</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.1111111111111112</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58">
-        <v>1.57</v>
-      </c>
-      <c r="C58">
-        <v>1.05</v>
-      </c>
-      <c r="D58">
-        <v>2.35</v>
+        <v>33</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.1111111111111112</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59">
-        <v>0.97</v>
-      </c>
-      <c r="C59">
-        <v>0.72</v>
-      </c>
-      <c r="D59">
-        <v>1.31</v>
-      </c>
-      <c r="E59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60">
-        <v>2.67</v>
-      </c>
-      <c r="C60">
-        <v>1.87</v>
-      </c>
-      <c r="D60">
-        <v>3.83</v>
-      </c>
-      <c r="E60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61">
-        <v>1.77</v>
-      </c>
-      <c r="C61">
-        <v>1.3</v>
-      </c>
-      <c r="D61">
-        <v>2.41</v>
-      </c>
-      <c r="E61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62">
-        <v>1.04</v>
-      </c>
-      <c r="C62">
-        <v>0.9</v>
-      </c>
-      <c r="D62">
-        <v>1.2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63">
-        <v>1.03</v>
-      </c>
-      <c r="C63">
-        <v>0.79</v>
-      </c>
-      <c r="D63">
-        <v>1.34</v>
-      </c>
-      <c r="E63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64">
-        <v>0.27</v>
-      </c>
-      <c r="C64">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D64">
-        <v>0.54</v>
-      </c>
-      <c r="E64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65">
-        <v>0.27</v>
-      </c>
-      <c r="C65">
-        <v>0.12</v>
-      </c>
-      <c r="D65">
-        <v>0.6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>0.73</v>
-      </c>
-      <c r="C66">
-        <v>0.36</v>
-      </c>
-      <c r="D66">
-        <v>1.38</v>
-      </c>
-      <c r="E66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67">
-        <v>3.01</v>
-      </c>
-      <c r="C67">
-        <v>1.39</v>
-      </c>
-      <c r="D67">
-        <v>6.73</v>
-      </c>
-      <c r="E67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68">
-        <v>0.67</v>
-      </c>
-      <c r="C68">
-        <v>0.26</v>
-      </c>
-      <c r="D68">
-        <v>1.72</v>
-      </c>
-      <c r="E68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69">
-        <v>1.65</v>
-      </c>
-      <c r="C69">
-        <v>0.78</v>
-      </c>
-      <c r="D69">
-        <v>3.63</v>
-      </c>
-      <c r="E69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70">
-        <v>1.73</v>
-      </c>
-      <c r="C70">
-        <v>0.83</v>
-      </c>
-      <c r="D70">
-        <v>3.78</v>
-      </c>
-      <c r="E70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="C71">
-        <v>1.2</v>
-      </c>
-      <c r="D71">
-        <v>5.46</v>
-      </c>
-      <c r="E71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72">
-        <v>0.98</v>
-      </c>
-      <c r="C72">
-        <v>0.96</v>
-      </c>
-      <c r="D72">
-        <v>1.01</v>
-      </c>
-      <c r="E72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73">
-        <v>0.18</v>
-      </c>
-      <c r="C73">
-        <v>0.12</v>
-      </c>
-      <c r="D73">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74">
-        <v>1.2</v>
-      </c>
-      <c r="C74">
-        <v>0.86</v>
-      </c>
-      <c r="D74">
-        <v>1.67</v>
-      </c>
-      <c r="E74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C75">
-        <v>2.99</v>
-      </c>
-      <c r="D75">
-        <v>7.03</v>
-      </c>
-      <c r="E75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76">
-        <v>7.05</v>
-      </c>
-      <c r="C76">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D76">
-        <v>10.1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD0D7F1-A5DF-4536-B41F-7B29DEE287AC}">
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>1.04</v>
-      </c>
-      <c r="C2">
-        <v>0.99</v>
-      </c>
-      <c r="D2">
-        <v>1.0900000000000001</v>
+      <c r="B2" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0526315789473684</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.02</v>
-      </c>
-      <c r="D3">
-        <v>1.23</v>
+      <c r="B3" s="1">
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.2048192771084338</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>0.87</v>
-      </c>
-      <c r="C4">
-        <v>0.72</v>
-      </c>
-      <c r="D4">
-        <v>1.05</v>
+      <c r="B4" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.49019607843137253</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.2345679012345678</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>0.73</v>
-      </c>
-      <c r="C5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D5">
-        <v>0.94</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.63</v>
-      </c>
-      <c r="C6">
-        <v>0.49</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
+      <c r="B6" s="1">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.8867924528301885</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>1.38</v>
-      </c>
-      <c r="C7">
-        <v>1.06</v>
-      </c>
-      <c r="D7">
-        <v>1.81</v>
+      <c r="B7" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.2222222222222223</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.82</v>
-      </c>
-      <c r="D8">
-        <v>1.47</v>
+      <c r="B8" s="1">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.35971223021582738</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.639344262295082</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>0.91</v>
-      </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <v>1.19</v>
+      <c r="B9" s="1">
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.7027027027027026</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>1.35</v>
-      </c>
-      <c r="C10">
-        <v>1.05</v>
-      </c>
-      <c r="D10">
-        <v>1.74</v>
+      <c r="B10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.39525691699604748</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.639344262295082</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>1.27</v>
-      </c>
-      <c r="C11">
-        <v>0.98</v>
-      </c>
-      <c r="D11">
-        <v>1.64</v>
+      <c r="B11" s="1">
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.8181818181818181</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>0.99</v>
-      </c>
-      <c r="C12">
-        <v>0.98</v>
-      </c>
-      <c r="D12">
-        <v>1.0001</v>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0204081632653061</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.51</v>
-      </c>
-      <c r="C13">
-        <v>0.45</v>
-      </c>
-      <c r="D13">
-        <v>0.57999999999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0309278350515465</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>0.62</v>
-      </c>
-      <c r="C14">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D14">
-        <v>0.68</v>
+      <c r="B14" s="1">
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.72992700729927007</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2048192771084338</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1.63</v>
-      </c>
-      <c r="C15">
-        <v>1.4</v>
-      </c>
-      <c r="D15">
-        <v>1.9</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.9411764705882351</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.72</v>
-      </c>
-      <c r="C16">
-        <v>0.62</v>
-      </c>
-      <c r="D16">
-        <v>0.84</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.77519379844961234</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0869565217391304</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2.14</v>
-      </c>
-      <c r="C17">
-        <v>1.85</v>
-      </c>
-      <c r="D17">
-        <v>2.4700000000000002</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.65359477124183007</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1904761904761905</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.94</v>
-      </c>
-      <c r="C18">
-        <v>1.67</v>
-      </c>
-      <c r="D18">
-        <v>2.25</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>3.57</v>
-      </c>
-      <c r="C19">
-        <v>3.19</v>
-      </c>
-      <c r="D19">
-        <v>3.99</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.7027027027027026</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20">
-        <v>1.74</v>
-      </c>
-      <c r="C20">
-        <v>1.52</v>
-      </c>
-      <c r="D20">
-        <v>1.99</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.6923076923076916</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>1.01</v>
-      </c>
-      <c r="C21">
-        <v>0.95</v>
-      </c>
-      <c r="D21">
-        <v>1.08</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.66225165562913912</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.3157894736842106</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C22">
-        <v>1.0001</v>
-      </c>
-      <c r="D22">
-        <v>1.25</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.52910052910052918</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.24449877750611249</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.1363636363636365</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>0.48</v>
-      </c>
-      <c r="C23">
-        <v>0.38</v>
-      </c>
-      <c r="D23">
-        <v>0.6</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.7241379310344829</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C24">
-        <v>0.42</v>
-      </c>
-      <c r="D24">
-        <v>0.78</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0833333333333335</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>0.83</v>
-      </c>
-      <c r="C25">
-        <v>0.6</v>
-      </c>
-      <c r="D25">
-        <v>1.1399999999999999</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7027027027027026</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
-        <v>1.4</v>
-      </c>
-      <c r="C26">
-        <v>1.02</v>
-      </c>
-      <c r="D26">
-        <v>1.91</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.075268817204301</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.81</v>
-      </c>
-      <c r="D27">
-        <v>1.61</v>
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.1235955056179776</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.1764705882352942</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>0.92</v>
-      </c>
-      <c r="C28">
-        <v>0.68</v>
-      </c>
-      <c r="D28">
-        <v>1.25</v>
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.1428571428571423</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29">
-        <v>1.31</v>
-      </c>
-      <c r="C29">
-        <v>0.97</v>
-      </c>
-      <c r="D29">
-        <v>1.76</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.1446540880503145E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.7482517482517483E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.15151515151515152</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C30">
-        <v>0.85</v>
-      </c>
-      <c r="D30">
-        <v>1.54</v>
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.1764705882352942</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>0.99</v>
-      </c>
-      <c r="C31">
-        <v>0.98</v>
-      </c>
-      <c r="D31">
-        <v>0.99990000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.66225165562913912</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.0416666666666667</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0.37</v>
-      </c>
-      <c r="C32">
-        <v>0.31</v>
-      </c>
-      <c r="D32">
-        <v>0.43</v>
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.7241379310344829</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C33">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="D33">
-        <v>1.31</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.48780487804878053</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.4285714285714286</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>1.33</v>
-      </c>
-      <c r="C34">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D34">
-        <v>1.58</v>
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.9230769230769229</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35">
-        <v>0.74</v>
-      </c>
-      <c r="C35">
-        <v>0.62</v>
-      </c>
-      <c r="D35">
-        <v>0.88</v>
+        <v>18</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.4390243902439024</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>2.4</v>
-      </c>
-      <c r="C36">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="D36">
-        <v>2.84</v>
+        <v>19</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.74626865671641784</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.8461538461538458</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>1.79</v>
-      </c>
-      <c r="C37">
-        <v>1.51</v>
-      </c>
-      <c r="D37">
-        <v>2.13</v>
+        <v>20</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.87719298245614041</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.3333333333333335</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>3.89</v>
-      </c>
-      <c r="C38">
-        <v>3.36</v>
-      </c>
-      <c r="D38">
-        <v>4.51</v>
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.4390243902439024</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C39">
-        <v>1.93</v>
-      </c>
-      <c r="D39">
-        <v>2.66</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.4705882352941175</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.77519379844961234</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.8571428571428572</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>1.0101010101010102</v>
       </c>
       <c r="C40" s="1">
-        <v>0.96</v>
+        <v>0.99009900990099009</v>
       </c>
       <c r="D40" s="1">
-        <v>1.04</v>
+        <v>1.0309278350515465</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41">
-        <v>1.01</v>
-      </c>
-      <c r="C41">
-        <v>0.94</v>
-      </c>
-      <c r="D41">
-        <v>1.08</v>
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.0309278350515465</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0.87</v>
-      </c>
-      <c r="D42">
-        <v>1.1399999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.1235955056179776</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.7543859649122808</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B43">
-        <v>1.07</v>
-      </c>
-      <c r="C43">
-        <v>0.88</v>
-      </c>
-      <c r="D43">
-        <v>1.29</v>
+      <c r="B43" s="1">
+        <v>9.1743119266055037E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.1413276231263382E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.26881720430107525</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44">
-        <v>0.95</v>
-      </c>
-      <c r="C44">
-        <v>0.77</v>
-      </c>
-      <c r="D44">
-        <v>1.17</v>
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.81300813008130079</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.0638297872340425</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <v>1.02</v>
-      </c>
-      <c r="C45">
-        <v>0.83</v>
-      </c>
-      <c r="D45">
-        <v>1.25</v>
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.84745762711864414</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.66225165562913912</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.075268817204301</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46">
-        <v>1.01</v>
-      </c>
-      <c r="C46">
-        <v>0.81</v>
-      </c>
-      <c r="D46">
-        <v>1.27</v>
+        <v>17</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.2824858757062147</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.8181818181818181</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47">
-        <v>1.03</v>
-      </c>
-      <c r="C47">
-        <v>0.84</v>
-      </c>
-      <c r="D47">
-        <v>1.26</v>
+        <v>26</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.53191489361702127</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6.25</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48">
-        <v>1.02</v>
-      </c>
-      <c r="C48">
-        <v>0.84</v>
-      </c>
-      <c r="D48">
-        <v>1.23</v>
+        <v>10</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.9230769230769229</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>1.01</v>
-      </c>
-      <c r="C49">
-        <v>0.83</v>
-      </c>
-      <c r="D49">
-        <v>1.23</v>
+        <v>18</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.22075055187637968</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.92592592592592582</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0.99</v>
-      </c>
-      <c r="D50">
-        <v>1.01</v>
+        <v>19</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.34602076124567471</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.6949152542372883</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51">
-        <v>0.96</v>
-      </c>
-      <c r="C51">
-        <v>0.88</v>
-      </c>
-      <c r="D51">
-        <v>1.05</v>
+        <v>20</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.8181818181818181</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>0.98</v>
-      </c>
-      <c r="C52">
-        <v>0.91</v>
-      </c>
-      <c r="D52">
-        <v>1.05</v>
+        <v>21</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.41493775933609955</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.20703933747412007</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.81967213114754101</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53">
-        <v>1.03</v>
-      </c>
-      <c r="C53">
-        <v>0.92</v>
-      </c>
-      <c r="D53">
-        <v>1.1499999999999999</v>
+        <v>22</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.31746031746031744</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.2820512820512819</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>0.95</v>
-      </c>
-      <c r="C54">
-        <v>0.84</v>
-      </c>
-      <c r="D54">
-        <v>1.06</v>
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.0204081632653061</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55">
-        <v>1.01</v>
-      </c>
-      <c r="C55">
-        <v>0.91</v>
-      </c>
-      <c r="D55">
-        <v>1.1299999999999999</v>
+        <v>7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56">
-        <v>0.99</v>
-      </c>
-      <c r="C56">
-        <v>0.88</v>
-      </c>
-      <c r="D56">
-        <v>1.1100000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.84033613445378152</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.3698630136986301</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57">
-        <v>0.98</v>
-      </c>
-      <c r="C57">
-        <v>0.9</v>
-      </c>
-      <c r="D57">
-        <v>1.06</v>
+        <v>28</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.1494252873563218</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.80645161290322587</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7.6923076923076916</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.40160642570281119</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.18939393939393939</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.32786885245901642</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.47393364928909953</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.4492753623188408</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.52910052910052918</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.86206896551724144</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3058103975535168</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.49504950495049505</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.2345679012345678</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.57471264367816088</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.82644628099173556</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.7543859649122808</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.86956521739130443</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.41322314049586778</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.6129032258064517</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.30959752321981426</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.21881838074398249</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.4366812227074236</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1941747572815534</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.80645161290322587</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.64102564102564097</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.59171597633136097</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.28409090909090912</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.4854368932038835</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.2192982456140351</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.40485829959514169</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.4854368932038835</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.000100010001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D28" s="1">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.24096385542168672</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.15822784810126581</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.63291139240506322</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.99990000999900008</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.5524861878453039</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.51546391752577325</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.1494252873563218</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.67114093959731547</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.86206896551724144</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.59171597633136097</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.61349693251533743</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.82644628099173556</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.41322314049586778</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.86206896551724144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.16155088852988692</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.81967213114754101</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.075268817204301</v>
+      </c>
+      <c r="E47" t="s">
         <v>35</v>
       </c>
-      <c r="B58">
-        <v>1.01</v>
-      </c>
-      <c r="C58">
-        <v>0.9</v>
-      </c>
-      <c r="D58">
-        <v>1.1200000000000001</v>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.84745762711864414</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.66225165562913912</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.2785515320334262</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.6949152542372883</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.50251256281407031</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.51282051282051289</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.24691358024691359</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.9174311926605504</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.23584905660377356</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.98039215686274506</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.42553191489361702</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.95238095238095233</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.37453183520599254</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.2610966057441253</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.53475935828876997</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.56497175141242939</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.41493775933609955</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.74626865671641784</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.2658227848101264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="D64" s="1">
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.7246376811594204</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.33222591362126247</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.14858841010401189</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.71942446043165476</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.4925373134328357</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.27548209366391185</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.5780346820809249</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.26455026455026459</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.2048192771084338</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.39840637450199207</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.18315018315018314</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1.1627906976744187</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.2192982456140351</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.14224751066856328</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.33444816053511706</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.14184397163120568</v>
+      </c>
+      <c r="C76" s="1">
+        <v>9.9009900990099015E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.20080321285140559</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E71"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,16 +4074,16 @@
         <v>13</v>
       </c>
       <c r="B2">
+        <v>1.04</v>
+      </c>
+      <c r="C2">
+        <v>0.99</v>
+      </c>
+      <c r="D2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="C2">
-        <v>0.95</v>
-      </c>
-      <c r="D2">
-        <v>1.25</v>
-      </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2827,16 +4091,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C3">
-        <v>0.83</v>
+        <v>1.02</v>
       </c>
       <c r="D3">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,33 +4108,33 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1.28</v>
+        <v>0.87</v>
       </c>
       <c r="C4">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="D4">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>0.55000000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D5">
-        <v>1.4</v>
+        <v>0.94</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,16 +4142,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.35</v>
+        <v>0.63</v>
       </c>
       <c r="C6">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="D6">
-        <v>3.65</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2895,16 +4159,16 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.95</v>
+        <v>1.38</v>
       </c>
       <c r="C7">
-        <v>0.45</v>
+        <v>1.06</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,16 +4176,16 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="D8">
-        <v>2.78</v>
+        <v>1.47</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2929,16 +4193,16 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="C9">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,16 +4210,16 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="C10">
-        <v>0.61</v>
+        <v>1.05</v>
       </c>
       <c r="D10">
-        <v>2.5299999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,16 +4227,16 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>1.1299999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="C11">
-        <v>0.55000000000000004</v>
+        <v>0.98</v>
       </c>
       <c r="D11">
-        <v>2.2999999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,16 +4244,1025 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C12">
         <v>0.98</v>
       </c>
       <c r="D12">
+        <v>1.0001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0.51</v>
+      </c>
+      <c r="C13">
+        <v>0.45</v>
+      </c>
+      <c r="D13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.62</v>
+      </c>
+      <c r="C14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1.63</v>
+      </c>
+      <c r="C15">
+        <v>1.4</v>
+      </c>
+      <c r="D15">
+        <v>1.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.72</v>
+      </c>
+      <c r="C16">
+        <v>0.62</v>
+      </c>
+      <c r="D16">
+        <v>0.84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.14</v>
+      </c>
+      <c r="C17">
+        <v>1.85</v>
+      </c>
+      <c r="D17">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.94</v>
+      </c>
+      <c r="C18">
+        <v>1.67</v>
+      </c>
+      <c r="D18">
+        <v>2.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>3.57</v>
+      </c>
+      <c r="C19">
+        <v>3.19</v>
+      </c>
+      <c r="D19">
+        <v>3.99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>1.74</v>
+      </c>
+      <c r="C20">
+        <v>1.52</v>
+      </c>
+      <c r="D20">
+        <v>1.99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>1.01</v>
+      </c>
+      <c r="C21">
+        <v>0.95</v>
+      </c>
+      <c r="D21">
+        <v>1.08</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1.0001</v>
+      </c>
+      <c r="D22">
+        <v>1.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0.48</v>
+      </c>
+      <c r="C23">
+        <v>0.38</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C24">
+        <v>0.42</v>
+      </c>
+      <c r="D24">
+        <v>0.78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.83</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>1.4</v>
+      </c>
+      <c r="C26">
+        <v>1.02</v>
+      </c>
+      <c r="D26">
+        <v>1.91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.81</v>
+      </c>
+      <c r="D27">
+        <v>1.61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0.92</v>
+      </c>
+      <c r="C28">
+        <v>0.68</v>
+      </c>
+      <c r="D28">
+        <v>1.25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>1.31</v>
+      </c>
+      <c r="C29">
+        <v>0.97</v>
+      </c>
+      <c r="D29">
+        <v>1.76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.85</v>
+      </c>
+      <c r="D30">
+        <v>1.54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.99</v>
+      </c>
+      <c r="C31">
+        <v>0.98</v>
+      </c>
+      <c r="D31">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.37</v>
+      </c>
+      <c r="C32">
+        <v>0.31</v>
+      </c>
+      <c r="D32">
+        <v>0.43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D33">
+        <v>1.31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1.33</v>
+      </c>
+      <c r="C34">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0.74</v>
+      </c>
+      <c r="C35">
+        <v>0.62</v>
+      </c>
+      <c r="D35">
+        <v>0.88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>2.4</v>
+      </c>
+      <c r="C36">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D36">
+        <v>2.84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>1.79</v>
+      </c>
+      <c r="C37">
+        <v>1.51</v>
+      </c>
+      <c r="D37">
+        <v>2.13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>3.89</v>
+      </c>
+      <c r="C38">
+        <v>3.36</v>
+      </c>
+      <c r="D38">
+        <v>4.51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C39">
+        <v>1.93</v>
+      </c>
+      <c r="D39">
+        <v>2.66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.96</v>
+      </c>
+      <c r="D40">
+        <v>1.04</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>1.01</v>
+      </c>
+      <c r="C41">
+        <v>0.94</v>
+      </c>
+      <c r="D41">
+        <v>1.08</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.87</v>
+      </c>
+      <c r="D42">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>1.07</v>
+      </c>
+      <c r="C43">
+        <v>0.88</v>
+      </c>
+      <c r="D43">
+        <v>1.29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0.95</v>
+      </c>
+      <c r="C44">
+        <v>0.77</v>
+      </c>
+      <c r="D44">
+        <v>1.17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>1.02</v>
+      </c>
+      <c r="C45">
+        <v>0.83</v>
+      </c>
+      <c r="D45">
+        <v>1.25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>1.01</v>
+      </c>
+      <c r="C46">
+        <v>0.81</v>
+      </c>
+      <c r="D46">
+        <v>1.27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>1.03</v>
+      </c>
+      <c r="C47">
+        <v>0.84</v>
+      </c>
+      <c r="D47">
+        <v>1.26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>1.02</v>
+      </c>
+      <c r="C48">
+        <v>0.84</v>
+      </c>
+      <c r="D48">
+        <v>1.23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>1.01</v>
+      </c>
+      <c r="C49">
+        <v>0.83</v>
+      </c>
+      <c r="D49">
+        <v>1.23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.99</v>
+      </c>
+      <c r="D50">
+        <v>1.01</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>0.96</v>
+      </c>
+      <c r="C51">
+        <v>0.88</v>
+      </c>
+      <c r="D51">
+        <v>1.05</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>0.98</v>
+      </c>
+      <c r="C52">
+        <v>0.91</v>
+      </c>
+      <c r="D52">
+        <v>1.05</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>1.03</v>
+      </c>
+      <c r="C53">
+        <v>0.92</v>
+      </c>
+      <c r="D53">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>0.95</v>
+      </c>
+      <c r="C54">
+        <v>0.84</v>
+      </c>
+      <c r="D54">
+        <v>1.06</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>1.01</v>
+      </c>
+      <c r="C55">
+        <v>0.91</v>
+      </c>
+      <c r="D55">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>0.99</v>
+      </c>
+      <c r="C56">
+        <v>0.88</v>
+      </c>
+      <c r="D56">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57">
+        <v>0.98</v>
+      </c>
+      <c r="C57">
+        <v>0.9</v>
+      </c>
+      <c r="D57">
+        <v>1.06</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58">
+        <v>1.01</v>
+      </c>
+      <c r="C58">
+        <v>0.9</v>
+      </c>
+      <c r="D58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>1.0900000000000001</v>
       </c>
+      <c r="C2">
+        <v>0.95</v>
+      </c>
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1.06</v>
+      </c>
+      <c r="C3">
+        <v>0.83</v>
+      </c>
+      <c r="D3">
+        <v>1.35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1.28</v>
+      </c>
+      <c r="C4">
+        <v>0.81</v>
+      </c>
+      <c r="D4">
+        <v>2.04</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>1.4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1.35</v>
+      </c>
+      <c r="C6">
+        <v>0.53</v>
+      </c>
+      <c r="D6">
+        <v>3.65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1.3</v>
+      </c>
+      <c r="C8">
+        <v>0.61</v>
+      </c>
+      <c r="D8">
+        <v>2.78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.77</v>
+      </c>
+      <c r="C9">
+        <v>0.37</v>
+      </c>
+      <c r="D9">
+        <v>1.6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1.25</v>
+      </c>
+      <c r="C10">
+        <v>0.61</v>
+      </c>
+      <c r="D10">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.98</v>
+      </c>
+      <c r="D12">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3006,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,12 +5296,12 @@
         <v>1.37</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.55000000000000004</v>
@@ -3040,7 +5313,7 @@
         <v>0.86</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3057,7 +5330,7 @@
         <v>1.29</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,7 +5347,7 @@
         <v>1.53</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3091,12 +5364,12 @@
         <v>0.11</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0.73</v>
@@ -3108,7 +5381,7 @@
         <v>1.4</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3125,7 +5398,7 @@
         <v>1.25</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3142,7 +5415,7 @@
         <v>3.04</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,7 +5432,7 @@
         <v>4.09</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,7 +5449,7 @@
         <v>2.25</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3193,7 +5466,7 @@
         <v>1.78</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,7 +5483,7 @@
         <v>1.41</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3244,7 +5517,7 @@
         <v>0.89</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3261,12 +5534,12 @@
         <v>0.33</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>31.8</v>
@@ -3278,7 +5551,7 @@
         <v>572</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3295,7 +5568,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3312,7 +5585,7 @@
         <v>1.51</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3329,12 +5602,12 @@
         <v>1.5</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>1.2</v>
@@ -3346,7 +5619,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3363,7 +5636,7 @@
         <v>1.88</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3380,7 +5653,7 @@
         <v>1.61</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,7 +5670,7 @@
         <v>1.34</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,7 +5687,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,7 +5704,7 @@
         <v>1.5</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3448,7 +5721,7 @@
         <v>1.29</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,7 +5738,7 @@
         <v>1.01</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +5755,7 @@
         <v>0.99</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3499,12 +5772,12 @@
         <v>0.89</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>10.9</v>
@@ -3516,7 +5789,7 @@
         <v>46.7</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,7 +5806,7 @@
         <v>1.23</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,7 +5823,7 @@
         <v>1.51</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,12 +5840,12 @@
         <v>3.54</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>0.56000000000000005</v>
@@ -3584,7 +5857,7 @@
         <v>1.88</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3601,7 +5874,7 @@
         <v>1.78</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,7 +5891,7 @@
         <v>4.53</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,7 +5908,7 @@
         <v>2.89</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,7 +5925,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,7 +5942,7 @@
         <v>4.83</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3686,7 +5959,7 @@
         <v>3.15</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3703,7 +5976,7 @@
         <v>1.03</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +5993,7 @@
         <v>1.04</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3737,12 +6010,12 @@
         <v>1.19</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B57">
         <v>1.54</v>
@@ -3754,7 +6027,7 @@
         <v>2.75</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3771,7 +6044,7 @@
         <v>1.24</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3788,7 +6061,7 @@
         <v>1.32</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,12 +6078,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>0.28000000000000003</v>
@@ -3822,7 +6095,7 @@
         <v>0.6</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,7 +6112,7 @@
         <v>0.95</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,7 +6129,7 @@
         <v>5.28</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,7 +6146,7 @@
         <v>1.64</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3890,7 +6163,7 @@
         <v>3.05</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,7 +6180,7 @@
         <v>3.24</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3924,7 +6197,7 @@
         <v>4.38</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,7 +6214,7 @@
         <v>1.01</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3958,7 +6231,7 @@
         <v>0.95</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,12 +6248,12 @@
         <v>0.69</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71">
         <v>0.72</v>
@@ -3992,10 +6265,11 @@
         <v>1.89</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>